--- a/analysis2.xlsx
+++ b/analysis2.xlsx
@@ -4,22 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="6060" yWindow="480" windowWidth="27795" windowHeight="13350"/>
+    <workbookView xWindow="6060" yWindow="480" windowWidth="27795" windowHeight="13350" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="5.4" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="5.5" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="99">
   <si>
     <t>America</t>
   </si>
@@ -313,6 +310,9 @@
   </si>
   <si>
     <t>Results using V5.4 w/ lucene index and 20% cutoff on the new dataset</t>
+  </si>
+  <si>
+    <t>Results using V5.5 w/ lucene index and 20% cutoff on the new dataset</t>
   </si>
 </sst>
 </file>
@@ -374,19 +374,19 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -534,8 +534,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="94440960"/>
-        <c:axId val="108218048"/>
+        <c:axId val="112401920"/>
+        <c:axId val="67990592"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -653,11 +653,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="108052480"/>
-        <c:axId val="108218624"/>
+        <c:axId val="123767296"/>
+        <c:axId val="67991168"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="94440960"/>
+        <c:axId val="112401920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -690,7 +690,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108218048"/>
+        <c:crossAx val="67990592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -698,7 +698,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="108218048"/>
+        <c:axId val="67990592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -729,12 +729,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94440960"/>
+        <c:crossAx val="112401920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="108218624"/>
+        <c:axId val="67991168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -767,12 +767,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108052480"/>
+        <c:crossAx val="123767296"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="108052480"/>
+        <c:axId val="123767296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -782,7 +782,413 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108218624"/>
+        <c:crossAx val="67991168"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'5.5'!$G$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Percent of Correct Matches Found</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'5.5'!$E$6:$E$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'5.5'!$G$6:$G$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>65.591397849462368</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>74.193548387096769</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>78.494623655913983</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>82.795698924731184</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>83.870967741935488</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>86.021505376344081</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>87.096774193548384</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>88.172043010752688</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>91.397849462365585</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>91.397849462365585</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>92.473118279569889</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="103745024"/>
+        <c:axId val="123844224"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'5.5'!$H$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Time per Entity (s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'5.5'!$E$6:$E$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'5.5'!$H$6:$H$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>3.1E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.1E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.1E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.1E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.1E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.1E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.1E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.1E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.1E-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.1E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="103758848"/>
+        <c:axId val="123844800"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="103745024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of Matches</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="123844224"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="123844224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Percent of Correct Matches Found</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="103745024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="123844800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Per Entry (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="103758848"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="103758848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="123844800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -844,267 +1250,41 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Graphs"/>
-      <sheetName val="V5.1"/>
-      <sheetName val="V5.2"/>
-      <sheetName val="V5.3"/>
-      <sheetName val="1234-1"/>
-      <sheetName val="1234-2"/>
-      <sheetName val="1234-2-new"/>
-      <sheetName val="1234-3-new"/>
-      <sheetName val="1234-4-new"/>
-      <sheetName val="341"/>
-      <sheetName val="1"/>
-      <sheetName val="2"/>
-      <sheetName val="3"/>
-      <sheetName val="4-1"/>
-      <sheetName val="4-2"/>
-      <sheetName val="12345"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3">
-        <row r="5">
-          <cell r="H5" t="str">
-            <v>Percent  of Correct Matches Found</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="E6">
-            <v>10</v>
-          </cell>
-          <cell r="H6">
-            <v>3.278688524590164</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="E7">
-            <v>100</v>
-          </cell>
-          <cell r="H7">
-            <v>9.8360655737704921</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="E8">
-            <v>500</v>
-          </cell>
-          <cell r="H8">
-            <v>15.573770491803279</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="E9">
-            <v>1000</v>
-          </cell>
-          <cell r="H9">
-            <v>18.852459016393443</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="E10">
-            <v>5000</v>
-          </cell>
-          <cell r="H10">
-            <v>33.606557377049178</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="E11">
-            <v>10000</v>
-          </cell>
-          <cell r="H11">
-            <v>39.344262295081968</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="E12">
-            <v>50000</v>
-          </cell>
-          <cell r="H12">
-            <v>50</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="E13">
-            <v>100000</v>
-          </cell>
-          <cell r="H13">
-            <v>54.098360655737707</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="E14">
-            <v>500000</v>
-          </cell>
-          <cell r="H14">
-            <v>59.016393442622949</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="E15">
-            <v>1000000</v>
-          </cell>
-          <cell r="H15">
-            <v>65.573770491803273</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="E16">
-            <v>1100000</v>
-          </cell>
-          <cell r="H16">
-            <v>66.393442622950815</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="E17">
-            <v>2000000</v>
-          </cell>
-          <cell r="H17">
-            <v>69.672131147540981</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="G41" t="str">
-            <v>Percent of Correct Matches Found</v>
-          </cell>
-          <cell r="H41" t="str">
-            <v>Time per Entity (s)</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="E42">
-            <v>1</v>
-          </cell>
-          <cell r="G42">
-            <v>70.967741935483872</v>
-          </cell>
-          <cell r="H42">
-            <v>3.1E-4</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="E43">
-            <v>2</v>
-          </cell>
-          <cell r="G43">
-            <v>74.193548387096769</v>
-          </cell>
-          <cell r="H43">
-            <v>3.1E-4</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="E44">
-            <v>3</v>
-          </cell>
-          <cell r="G44">
-            <v>80.645161290322577</v>
-          </cell>
-          <cell r="H44">
-            <v>3.1E-4</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="E45">
-            <v>5</v>
-          </cell>
-          <cell r="G45">
-            <v>81.72043010752688</v>
-          </cell>
-          <cell r="H45">
-            <v>3.1E-4</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="E46">
-            <v>8</v>
-          </cell>
-          <cell r="G46">
-            <v>83.870967741935488</v>
-          </cell>
-          <cell r="H46">
-            <v>3.1E-4</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="E47">
-            <v>20</v>
-          </cell>
-          <cell r="G47">
-            <v>87.096774193548384</v>
-          </cell>
-          <cell r="H47">
-            <v>3.1E-4</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="E48">
-            <v>30</v>
-          </cell>
-          <cell r="G48">
-            <v>88.172043010752688</v>
-          </cell>
-          <cell r="H48">
-            <v>3.1E-4</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="E49">
-            <v>50</v>
-          </cell>
-          <cell r="G49">
-            <v>89.247311827956992</v>
-          </cell>
-          <cell r="H49">
-            <v>3.1E-4</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="E50">
-            <v>100</v>
-          </cell>
-          <cell r="G50">
-            <v>90.322580645161295</v>
-          </cell>
-          <cell r="H50">
-            <v>3.1E-4</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="E51">
-            <v>500</v>
-          </cell>
-          <cell r="G51">
-            <v>91.397849462365585</v>
-          </cell>
-          <cell r="H51">
-            <v>3.1E-4</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1714500</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1396,8 +1576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H127"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1405,8 +1585,8 @@
     <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.28515625" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="5" max="5" width="30.5703125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="34.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.5703125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="34.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="31.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="38" customWidth="1"/>
     <col min="9" max="9" width="23" bestFit="1" customWidth="1"/>
@@ -1415,39 +1595,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
     </row>
     <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
+      <c r="A2" s="1"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1459,16 +1639,16 @@
       <c r="C5">
         <v>2147483647</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="2" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1482,10 +1662,10 @@
       <c r="C6">
         <v>2147483647</v>
       </c>
-      <c r="E6" s="5">
-        <v>1</v>
-      </c>
-      <c r="F6" s="5">
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3">
         <f>COUNTIF(C:C,"&lt;= 1")</f>
         <v>64</v>
       </c>
@@ -1507,10 +1687,10 @@
       <c r="C7">
         <v>2147483647</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="3">
         <v>2</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="3">
         <f>COUNTIF(C:C,"&lt;= 2")</f>
         <v>70</v>
       </c>
@@ -1532,10 +1712,10 @@
       <c r="C8">
         <v>2147483647</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="3">
         <v>3</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="3">
         <f>COUNTIF(C:C,"&lt;= 3")</f>
         <v>75</v>
       </c>
@@ -1557,10 +1737,10 @@
       <c r="C9">
         <v>644</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="3">
         <v>5</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="3">
         <f>COUNTIF(C:C,"&lt;=5")</f>
         <v>76</v>
       </c>
@@ -1582,10 +1762,10 @@
       <c r="C10">
         <v>616</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="3">
         <v>8</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="3">
         <f>COUNTIF(C:C,"&lt;= 8")</f>
         <v>77</v>
       </c>
@@ -1607,10 +1787,10 @@
       <c r="C11">
         <v>594</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="3">
         <v>10</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="3">
         <f>COUNTIF(C:C,"&lt;= 10")</f>
         <v>79</v>
       </c>
@@ -1632,10 +1812,10 @@
       <c r="C12">
         <v>565</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="3">
         <v>20</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="3">
         <f>COUNTIF(C:C,"&lt;= 20")</f>
         <v>81</v>
       </c>
@@ -1657,10 +1837,10 @@
       <c r="C13">
         <v>215</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="3">
         <v>30</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="3">
         <f>COUNTIF(C:C,"&lt;= 30")</f>
         <v>81</v>
       </c>
@@ -1682,10 +1862,10 @@
       <c r="C14">
         <v>59</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="3">
         <v>50</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="3">
         <f>COUNTIF(C:C,"&lt;= 50")</f>
         <v>82</v>
       </c>
@@ -1707,10 +1887,10 @@
       <c r="C15">
         <v>52</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="3">
         <v>100</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="3">
         <f>COUNTIF(C:C,"&lt;= 100")</f>
         <v>84</v>
       </c>
@@ -1732,10 +1912,10 @@
       <c r="C16">
         <v>48</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="3">
         <v>500</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="3">
         <f>COUNTIF(C:C,"&lt;= 500")</f>
         <v>85</v>
       </c>
@@ -2131,7 +2311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>41</v>
       </c>
@@ -2142,7 +2322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>90</v>
       </c>
@@ -2153,7 +2333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>29</v>
       </c>
@@ -2164,7 +2344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>89</v>
       </c>
@@ -2175,7 +2355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>73</v>
       </c>
@@ -2186,7 +2366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>79</v>
       </c>
@@ -2197,7 +2377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>96</v>
       </c>
@@ -2208,7 +2388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>31</v>
       </c>
@@ -2219,7 +2399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>61</v>
       </c>
@@ -2230,7 +2410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>48</v>
       </c>
@@ -2241,7 +2421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>49</v>
       </c>
@@ -2252,7 +2432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>74</v>
       </c>
@@ -2263,7 +2443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>51</v>
       </c>
@@ -2274,7 +2454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>50</v>
       </c>
@@ -2285,7 +2465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>75</v>
       </c>
@@ -2296,7 +2476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>92</v>
       </c>
@@ -2808,13 +2988,1415 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H127"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="A5:C17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="5" max="5" width="30.5703125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="34.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="38" customWidth="1"/>
+    <col min="9" max="9" width="23" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.28515625" customWidth="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+    </row>
+    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>2147483647</v>
+      </c>
+      <c r="C5">
+        <v>2147483647</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>2147483647</v>
+      </c>
+      <c r="C6">
+        <v>2147483647</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3">
+        <f>COUNTIF(C:C,"&lt;= 1")</f>
+        <v>61</v>
+      </c>
+      <c r="G6">
+        <f t="shared" ref="G6:G16" si="0" xml:space="preserve"> 100 * F6 / 93</f>
+        <v>65.591397849462368</v>
+      </c>
+      <c r="H6">
+        <v>3.1E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>2147483647</v>
+      </c>
+      <c r="C7">
+        <v>2147483647</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2</v>
+      </c>
+      <c r="F7" s="3">
+        <f>COUNTIF(C:C,"&lt;= 2")</f>
+        <v>69</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>74.193548387096769</v>
+      </c>
+      <c r="H7">
+        <v>3.1E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>2271285</v>
+      </c>
+      <c r="C8">
+        <v>633</v>
+      </c>
+      <c r="E8" s="3">
+        <v>3</v>
+      </c>
+      <c r="F8" s="3">
+        <f>COUNTIF(C:C,"&lt;= 3")</f>
+        <v>73</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>78.494623655913983</v>
+      </c>
+      <c r="H8">
+        <v>3.1E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>2271285</v>
+      </c>
+      <c r="C9">
+        <v>616</v>
+      </c>
+      <c r="E9" s="3">
+        <v>5</v>
+      </c>
+      <c r="F9" s="3">
+        <f>COUNTIF(C:C,"&lt;=5")</f>
+        <v>77</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>82.795698924731184</v>
+      </c>
+      <c r="H9">
+        <v>3.1E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>2271285</v>
+      </c>
+      <c r="C10">
+        <v>610</v>
+      </c>
+      <c r="E10" s="3">
+        <v>8</v>
+      </c>
+      <c r="F10" s="3">
+        <f>COUNTIF(C:C,"&lt;= 8")</f>
+        <v>78</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>83.870967741935488</v>
+      </c>
+      <c r="H10">
+        <v>3.1E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>115504</v>
+      </c>
+      <c r="C11">
+        <v>561</v>
+      </c>
+      <c r="E11" s="3">
+        <v>10</v>
+      </c>
+      <c r="F11" s="3">
+        <f>COUNTIF(C:C,"&lt;= 10")</f>
+        <v>80</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>86.021505376344081</v>
+      </c>
+      <c r="H11">
+        <v>3.1E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>1263249</v>
+      </c>
+      <c r="C12">
+        <v>215</v>
+      </c>
+      <c r="E12" s="3">
+        <v>20</v>
+      </c>
+      <c r="F12" s="3">
+        <f>COUNTIF(C:C,"&lt;= 20")</f>
+        <v>81</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>87.096774193548384</v>
+      </c>
+      <c r="H12">
+        <v>3.1E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>957011</v>
+      </c>
+      <c r="C13">
+        <v>48</v>
+      </c>
+      <c r="E13" s="3">
+        <v>30</v>
+      </c>
+      <c r="F13" s="3">
+        <f>COUNTIF(C:C,"&lt;= 30")</f>
+        <v>82</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>88.172043010752688</v>
+      </c>
+      <c r="H13">
+        <v>3.1E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14">
+        <v>1080362</v>
+      </c>
+      <c r="C14">
+        <v>42</v>
+      </c>
+      <c r="E14" s="3">
+        <v>50</v>
+      </c>
+      <c r="F14" s="3">
+        <f>COUNTIF(C:C,"&lt;= 50")</f>
+        <v>85</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>91.397849462365585</v>
+      </c>
+      <c r="H14">
+        <v>3.1E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15">
+        <v>60754</v>
+      </c>
+      <c r="C15">
+        <v>39</v>
+      </c>
+      <c r="E15" s="3">
+        <v>100</v>
+      </c>
+      <c r="F15" s="3">
+        <f>COUNTIF(C:C,"&lt;= 100")</f>
+        <v>85</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>91.397849462365585</v>
+      </c>
+      <c r="H15">
+        <v>3.1E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16">
+        <v>31421</v>
+      </c>
+      <c r="C16">
+        <v>22</v>
+      </c>
+      <c r="E16" s="3">
+        <v>500</v>
+      </c>
+      <c r="F16" s="3">
+        <f>COUNTIF(C:C,"&lt;= 500")</f>
+        <v>86</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>92.473118279569889</v>
+      </c>
+      <c r="H16">
+        <v>3.1E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17">
+        <v>223224</v>
+      </c>
+      <c r="C17">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18">
+        <v>246693</v>
+      </c>
+      <c r="C18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19">
+        <v>441348</v>
+      </c>
+      <c r="C19">
+        <v>9</v>
+      </c>
+      <c r="E19"/>
+      <c r="F19"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20">
+        <v>1534725</v>
+      </c>
+      <c r="C20">
+        <v>8</v>
+      </c>
+      <c r="E20"/>
+      <c r="F20"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21">
+        <v>10658</v>
+      </c>
+      <c r="C21">
+        <v>4</v>
+      </c>
+      <c r="E21"/>
+      <c r="F21"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22">
+        <v>13567</v>
+      </c>
+      <c r="C22">
+        <v>4</v>
+      </c>
+      <c r="E22"/>
+      <c r="F22"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23">
+        <v>825</v>
+      </c>
+      <c r="C23">
+        <v>4</v>
+      </c>
+      <c r="E23"/>
+      <c r="F23"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>564260</v>
+      </c>
+      <c r="C24">
+        <v>4</v>
+      </c>
+      <c r="E24"/>
+      <c r="F24"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25">
+        <v>1347237</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+      <c r="E25"/>
+      <c r="F25"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26">
+        <v>902654</v>
+      </c>
+      <c r="C26">
+        <v>3</v>
+      </c>
+      <c r="E26"/>
+      <c r="F26"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27">
+        <v>2010453</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
+      <c r="E27"/>
+      <c r="F27"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28">
+        <v>85491</v>
+      </c>
+      <c r="C28">
+        <v>3</v>
+      </c>
+      <c r="E28"/>
+      <c r="F28"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29">
+        <v>2467</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="E29"/>
+      <c r="F29"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30">
+        <v>52</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="E30"/>
+      <c r="F30"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>1347237</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="E31"/>
+      <c r="F31"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>21</v>
+      </c>
+      <c r="B32">
+        <v>6711</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="E32"/>
+      <c r="F32"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33">
+        <v>582720</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="E33"/>
+      <c r="F33"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34">
+        <v>23780</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+      <c r="E34"/>
+      <c r="F34"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>85</v>
+      </c>
+      <c r="B35">
+        <v>15</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>58</v>
+      </c>
+      <c r="B36">
+        <v>81864</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>94</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>54</v>
+      </c>
+      <c r="B38">
+        <v>30954</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>69</v>
+      </c>
+      <c r="B39">
+        <v>1052</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>56</v>
+      </c>
+      <c r="B40">
+        <v>7538</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>70</v>
+      </c>
+      <c r="B41">
+        <v>1052</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>71</v>
+      </c>
+      <c r="B42">
+        <v>135</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>83</v>
+      </c>
+      <c r="B43">
+        <v>142064</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>57</v>
+      </c>
+      <c r="B44">
+        <v>1410</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45">
+        <v>442</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>18</v>
+      </c>
+      <c r="B46">
+        <v>11</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>95</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>43</v>
+      </c>
+      <c r="B48">
+        <v>565471</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>81</v>
+      </c>
+      <c r="B49">
+        <v>2583</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>42</v>
+      </c>
+      <c r="B50">
+        <v>288643</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>41</v>
+      </c>
+      <c r="B52">
+        <v>1819</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>90</v>
+      </c>
+      <c r="B53">
+        <v>3416</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>89</v>
+      </c>
+      <c r="B54">
+        <v>28376</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>73</v>
+      </c>
+      <c r="B55">
+        <v>53553</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>79</v>
+      </c>
+      <c r="B56">
+        <v>106</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>96</v>
+      </c>
+      <c r="B57">
+        <v>1804</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>31</v>
+      </c>
+      <c r="B58">
+        <v>8</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>61</v>
+      </c>
+      <c r="B59">
+        <v>2216</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>48</v>
+      </c>
+      <c r="B60">
+        <v>107</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>49</v>
+      </c>
+      <c r="B61">
+        <v>5123</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>74</v>
+      </c>
+      <c r="B62">
+        <v>17413</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>51</v>
+      </c>
+      <c r="B63">
+        <v>7034</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>50</v>
+      </c>
+      <c r="B64">
+        <v>5123</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>75</v>
+      </c>
+      <c r="B65">
+        <v>13567</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>92</v>
+      </c>
+      <c r="B66">
+        <v>1082</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>36</v>
+      </c>
+      <c r="B67">
+        <v>1055</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="E67"/>
+      <c r="F67"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <v>77</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="E68"/>
+      <c r="F68"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>30</v>
+      </c>
+      <c r="B69">
+        <v>930</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="E69"/>
+      <c r="F69"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>32</v>
+      </c>
+      <c r="B70">
+        <v>1738</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="E70"/>
+      <c r="F70"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>64</v>
+      </c>
+      <c r="B71">
+        <v>712</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="E71"/>
+      <c r="F71"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>52</v>
+      </c>
+      <c r="B72">
+        <v>1569</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="E72"/>
+      <c r="F72"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>20</v>
+      </c>
+      <c r="B73">
+        <v>7538</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="E73"/>
+      <c r="F73"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>86</v>
+      </c>
+      <c r="B74">
+        <v>23</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="E74"/>
+      <c r="F74"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>63</v>
+      </c>
+      <c r="B75">
+        <v>124</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="E75"/>
+      <c r="F75"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>76</v>
+      </c>
+      <c r="B76">
+        <v>451</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="E76"/>
+      <c r="F76"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>80</v>
+      </c>
+      <c r="B77">
+        <v>1318</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="E77"/>
+      <c r="F77"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>60</v>
+      </c>
+      <c r="B78">
+        <v>17413</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="E78"/>
+      <c r="F78"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>88</v>
+      </c>
+      <c r="B79">
+        <v>1</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="E79"/>
+      <c r="F79"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>82</v>
+      </c>
+      <c r="B80">
+        <v>66</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="E80"/>
+      <c r="F80"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>65</v>
+      </c>
+      <c r="B81">
+        <v>96</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="E81"/>
+      <c r="F81"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>72</v>
+      </c>
+      <c r="B82">
+        <v>684</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+      <c r="E82"/>
+      <c r="F82"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>93</v>
+      </c>
+      <c r="B83">
+        <v>1220</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="E83"/>
+      <c r="F83"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>55</v>
+      </c>
+      <c r="B84">
+        <v>7538</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+      <c r="E84"/>
+      <c r="F84"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>62</v>
+      </c>
+      <c r="B85">
+        <v>1024</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+      <c r="E85"/>
+      <c r="F85"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>33</v>
+      </c>
+      <c r="B86">
+        <v>1978</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+      <c r="E86"/>
+      <c r="F86"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>35</v>
+      </c>
+      <c r="B87">
+        <v>604358</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="E87"/>
+      <c r="F87"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>68</v>
+      </c>
+      <c r="B88">
+        <v>35440</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+      <c r="E88"/>
+      <c r="F88"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>53</v>
+      </c>
+      <c r="B89">
+        <v>64</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+      <c r="E89"/>
+      <c r="F89"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>77</v>
+      </c>
+      <c r="B90">
+        <v>731499</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+      <c r="E90"/>
+      <c r="F90"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>46</v>
+      </c>
+      <c r="B91">
+        <v>14080</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+      <c r="E91"/>
+      <c r="F91"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>84</v>
+      </c>
+      <c r="B92">
+        <v>683636</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+      <c r="E92"/>
+      <c r="F92"/>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>87</v>
+      </c>
+      <c r="B93">
+        <v>57236</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+      <c r="E93"/>
+      <c r="F93"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>34</v>
+      </c>
+      <c r="B94">
+        <v>174</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
+      </c>
+      <c r="E94"/>
+      <c r="F94"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>45</v>
+      </c>
+      <c r="B95">
+        <v>45712</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+      <c r="E95"/>
+      <c r="F95"/>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>44</v>
+      </c>
+      <c r="B96">
+        <v>4165</v>
+      </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
+      <c r="E96"/>
+      <c r="F96"/>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>91</v>
+      </c>
+      <c r="B97">
+        <v>30173</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+      <c r="E97"/>
+      <c r="F97"/>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E98"/>
+      <c r="F98"/>
+    </row>
+    <row r="114" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E114"/>
+      <c r="F114"/>
+    </row>
+    <row r="115" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E115"/>
+      <c r="F115"/>
+    </row>
+    <row r="116" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E116"/>
+      <c r="F116"/>
+    </row>
+    <row r="117" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E117"/>
+      <c r="F117"/>
+    </row>
+    <row r="118" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E118"/>
+      <c r="F118"/>
+    </row>
+    <row r="119" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E119"/>
+      <c r="F119"/>
+    </row>
+    <row r="120" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E120"/>
+      <c r="F120"/>
+    </row>
+    <row r="121" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E121"/>
+      <c r="F121"/>
+    </row>
+    <row r="122" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E122"/>
+      <c r="F122"/>
+    </row>
+    <row r="123" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E123"/>
+      <c r="F123"/>
+    </row>
+    <row r="124" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E124"/>
+      <c r="F124"/>
+    </row>
+    <row r="125" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E125"/>
+      <c r="F125"/>
+    </row>
+    <row r="126" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E126"/>
+      <c r="F126"/>
+    </row>
+    <row r="127" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E127"/>
+      <c r="F127"/>
+    </row>
+  </sheetData>
+  <sortState ref="A5:C97">
+    <sortCondition descending="1" ref="C5"/>
+  </sortState>
+  <mergeCells count="3">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/analysis2.xlsx
+++ b/analysis2.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="6060" yWindow="480" windowWidth="27795" windowHeight="13350" activeTab="1"/>
+    <workbookView xWindow="6060" yWindow="480" windowWidth="27795" windowHeight="13350" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="5.4" sheetId="1" r:id="rId1"/>
     <sheet name="5.5" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Naive" sheetId="3" r:id="rId3"/>
+    <sheet name="Naive2" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="101">
   <si>
     <t>America</t>
   </si>
@@ -313,6 +314,12 @@
   </si>
   <si>
     <t>Results using V5.5 w/ lucene index and 20% cutoff on the new dataset</t>
+  </si>
+  <si>
+    <t>Results using naïve exact matching on the new dataset</t>
+  </si>
+  <si>
+    <t>Results using naïve substring matching on the new dataset</t>
   </si>
 </sst>
 </file>
@@ -534,8 +541,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="112401920"/>
-        <c:axId val="67990592"/>
+        <c:axId val="108000768"/>
+        <c:axId val="67401344"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -653,11 +660,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="123767296"/>
-        <c:axId val="67991168"/>
+        <c:axId val="108001792"/>
+        <c:axId val="67401920"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="112401920"/>
+        <c:axId val="108000768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -683,14 +690,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67990592"/>
+        <c:crossAx val="67401344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -698,7 +704,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="67990592"/>
+        <c:axId val="67401344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -722,19 +728,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112401920"/>
+        <c:crossAx val="108000768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="67991168"/>
+        <c:axId val="67401920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -760,19 +765,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="123767296"/>
+        <c:crossAx val="108001792"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="123767296"/>
+        <c:axId val="108001792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -782,7 +786,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67991168"/>
+        <c:crossAx val="67401920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -792,7 +796,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -940,8 +943,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="103745024"/>
-        <c:axId val="123844224"/>
+        <c:axId val="111411200"/>
+        <c:axId val="108044864"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1012,37 +1015,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>3.1E-4</c:v>
+                  <c:v>4.0200000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.1E-4</c:v>
+                  <c:v>4.0200000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.1E-4</c:v>
+                  <c:v>4.0200000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.1E-4</c:v>
+                  <c:v>4.0200000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.1E-4</c:v>
+                  <c:v>4.0200000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.1E-4</c:v>
+                  <c:v>4.0200000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.1E-4</c:v>
+                  <c:v>4.0200000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.1E-4</c:v>
+                  <c:v>4.0200000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.1E-4</c:v>
+                  <c:v>4.0200000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.1E-4</c:v>
+                  <c:v>4.0200000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.1E-4</c:v>
+                  <c:v>4.0200000000000001E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1059,11 +1062,815 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="103758848"/>
-        <c:axId val="123844800"/>
+        <c:axId val="65701376"/>
+        <c:axId val="108045440"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="103745024"/>
+        <c:axId val="111411200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of Matches</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="108044864"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="108044864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Percent of Correct Matches Found</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="111411200"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="108045440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Per Entry (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="65701376"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="65701376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="108045440"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Naive!$G$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Percent of Correct Matches Found</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Naive!$E$6:$E$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Naive!$G$6:$G$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>40.86021505376344</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41.935483870967744</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41.935483870967744</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41.935483870967744</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41.935483870967744</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41.935483870967744</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41.935483870967744</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41.935483870967744</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41.935483870967744</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41.935483870967744</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41.935483870967744</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="111414784"/>
+        <c:axId val="108047744"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Naive!$H$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Time per Entity (s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Naive!$E$6:$E$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Naive!$H$6:$H$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>4.0200000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0200000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0200000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0200000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0200000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.0200000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.0200000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0200000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.0200000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.0200000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.0200000000000001E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="111497728"/>
+        <c:axId val="108048320"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="111414784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of Matches</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="108047744"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="108047744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Percent of Correct Matches Found</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="111414784"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="108048320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Per Entry (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="111497728"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="111497728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="108048320"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Naive2!$G$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Percent of Correct Matches Found</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Naive2!$E$6:$E$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Naive2!$G$6:$G$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>9.67741935483871</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.053763440860216</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.053763440860216</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19.35483870967742</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.43010752688172</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22.580645161290324</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>29.032258064516128</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>36.55913978494624</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>49.462365591397848</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>70.967741935483872</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70.967741935483872</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="111499264"/>
+        <c:axId val="108050624"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Naive2!$H$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Time per Entity (s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Naive2!$E$6:$E$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Naive2!$H$6:$H$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>4.0200000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0200000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0200000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0200000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0200000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.0200000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.0200000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0200000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.0200000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.0200000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.0200000000000001E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="108000256"/>
+        <c:axId val="108051200"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="111499264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1096,7 +1903,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="123844224"/>
+        <c:crossAx val="108050624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1104,7 +1911,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="123844224"/>
+        <c:axId val="108050624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -1135,12 +1942,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103745024"/>
+        <c:crossAx val="111499264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="123844800"/>
+        <c:axId val="108051200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1173,12 +1980,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103758848"/>
+        <c:crossAx val="108000256"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="103758848"/>
+        <c:axId val="108000256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1188,7 +1995,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="123844800"/>
+        <c:crossAx val="108051200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1251,6 +2058,80 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1714500</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1714500</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2990,8 +3871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H127"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="A5:C17"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3088,7 +3969,7 @@
         <v>65.591397849462368</v>
       </c>
       <c r="H6">
-        <v>3.1E-4</v>
+        <v>4.0200000000000001E-3</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -3113,7 +3994,7 @@
         <v>74.193548387096769</v>
       </c>
       <c r="H7">
-        <v>3.1E-4</v>
+        <v>4.0200000000000001E-3</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -3138,7 +4019,7 @@
         <v>78.494623655913983</v>
       </c>
       <c r="H8">
-        <v>3.1E-4</v>
+        <v>4.0200000000000001E-3</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -3163,7 +4044,7 @@
         <v>82.795698924731184</v>
       </c>
       <c r="H9">
-        <v>3.1E-4</v>
+        <v>4.0200000000000001E-3</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -3188,7 +4069,7 @@
         <v>83.870967741935488</v>
       </c>
       <c r="H10">
-        <v>3.1E-4</v>
+        <v>4.0200000000000001E-3</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -3213,7 +4094,7 @@
         <v>86.021505376344081</v>
       </c>
       <c r="H11">
-        <v>3.1E-4</v>
+        <v>4.0200000000000001E-3</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -3238,7 +4119,7 @@
         <v>87.096774193548384</v>
       </c>
       <c r="H12">
-        <v>3.1E-4</v>
+        <v>4.0200000000000001E-3</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -3263,7 +4144,7 @@
         <v>88.172043010752688</v>
       </c>
       <c r="H13">
-        <v>3.1E-4</v>
+        <v>4.0200000000000001E-3</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -3288,7 +4169,7 @@
         <v>91.397849462365585</v>
       </c>
       <c r="H14">
-        <v>3.1E-4</v>
+        <v>4.0200000000000001E-3</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -3313,7 +4194,7 @@
         <v>91.397849462365585</v>
       </c>
       <c r="H15">
-        <v>3.1E-4</v>
+        <v>4.0200000000000001E-3</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -3338,7 +4219,7 @@
         <v>92.473118279569889</v>
       </c>
       <c r="H16">
-        <v>3.1E-4</v>
+        <v>4.0200000000000001E-3</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -4402,12 +5283,2828 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H127"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="E59" sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="5" max="5" width="30.5703125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="34.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="38" customWidth="1"/>
+    <col min="9" max="9" width="23" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.28515625" customWidth="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+    </row>
+    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5">
+        <v>30954</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6">
+        <v>1052</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3">
+        <f>COUNTIF(C:C,"&lt;= 1")</f>
+        <v>38</v>
+      </c>
+      <c r="G6">
+        <f t="shared" ref="G6:G16" si="0" xml:space="preserve"> 100 * F6 / 93</f>
+        <v>40.86021505376344</v>
+      </c>
+      <c r="H6">
+        <v>4.0200000000000001E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7">
+        <v>135</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2</v>
+      </c>
+      <c r="F7" s="3">
+        <f>COUNTIF(C:C,"&lt;= 2")</f>
+        <v>39</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>41.935483870967744</v>
+      </c>
+      <c r="H7">
+        <v>4.0200000000000001E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8">
+        <v>1410</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3">
+        <v>3</v>
+      </c>
+      <c r="F8" s="3">
+        <f>COUNTIF(C:C,"&lt;= 3")</f>
+        <v>39</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>41.935483870967744</v>
+      </c>
+      <c r="H8">
+        <v>4.0200000000000001E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9">
+        <v>442</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3">
+        <v>5</v>
+      </c>
+      <c r="F9" s="3">
+        <f>COUNTIF(C:C,"&lt;=5")</f>
+        <v>39</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>41.935483870967744</v>
+      </c>
+      <c r="H9">
+        <v>4.0200000000000001E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3">
+        <v>8</v>
+      </c>
+      <c r="F10" s="3">
+        <f>COUNTIF(C:C,"&lt;= 8")</f>
+        <v>39</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>41.935483870967744</v>
+      </c>
+      <c r="H10">
+        <v>4.0200000000000001E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11">
+        <v>288643</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3">
+        <v>10</v>
+      </c>
+      <c r="F11" s="3">
+        <f>COUNTIF(C:C,"&lt;= 10")</f>
+        <v>39</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>41.935483870967744</v>
+      </c>
+      <c r="H11">
+        <v>4.0200000000000001E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12">
+        <v>1819</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3">
+        <v>20</v>
+      </c>
+      <c r="F12" s="3">
+        <f>COUNTIF(C:C,"&lt;= 20")</f>
+        <v>39</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>41.935483870967744</v>
+      </c>
+      <c r="H12">
+        <v>4.0200000000000001E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>90</v>
+      </c>
+      <c r="B13">
+        <v>3416</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="E13" s="3">
+        <v>30</v>
+      </c>
+      <c r="F13" s="3">
+        <f>COUNTIF(C:C,"&lt;= 30")</f>
+        <v>39</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>41.935483870967744</v>
+      </c>
+      <c r="H13">
+        <v>4.0200000000000001E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>89</v>
+      </c>
+      <c r="B14">
+        <v>28376</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3">
+        <v>50</v>
+      </c>
+      <c r="F14" s="3">
+        <f>COUNTIF(C:C,"&lt;= 50")</f>
+        <v>39</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>41.935483870967744</v>
+      </c>
+      <c r="H14">
+        <v>4.0200000000000001E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>79</v>
+      </c>
+      <c r="B15">
+        <v>106</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="E15" s="3">
+        <v>100</v>
+      </c>
+      <c r="F15" s="3">
+        <f>COUNTIF(C:C,"&lt;= 100")</f>
+        <v>39</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>41.935483870967744</v>
+      </c>
+      <c r="H15">
+        <v>4.0200000000000001E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>96</v>
+      </c>
+      <c r="B16">
+        <v>1804</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="E16" s="3">
+        <v>500</v>
+      </c>
+      <c r="F16" s="3">
+        <f>COUNTIF(C:C,"&lt;= 500")</f>
+        <v>39</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>41.935483870967744</v>
+      </c>
+      <c r="H16">
+        <v>4.0200000000000001E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17">
+        <v>8</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18">
+        <v>107</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19">
+        <v>7034</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="E19"/>
+      <c r="F19"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20">
+        <v>5123</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="E20"/>
+      <c r="F20"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21">
+        <v>13567</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="E21"/>
+      <c r="F21"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>92</v>
+      </c>
+      <c r="B22">
+        <v>1082</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="E22"/>
+      <c r="F22"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23">
+        <v>1055</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="E23"/>
+      <c r="F23"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24">
+        <v>77</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="E24"/>
+      <c r="F24"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25">
+        <v>1738</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="E25"/>
+      <c r="F25"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26">
+        <v>712</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="E26"/>
+      <c r="F26"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>86</v>
+      </c>
+      <c r="B27">
+        <v>23</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="E27"/>
+      <c r="F27"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>63</v>
+      </c>
+      <c r="B28">
+        <v>124</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="E28"/>
+      <c r="F28"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>80</v>
+      </c>
+      <c r="B29">
+        <v>1318</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="E29"/>
+      <c r="F29"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30">
+        <v>17413</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="E30"/>
+      <c r="F30"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>82</v>
+      </c>
+      <c r="B31">
+        <v>66</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="E31"/>
+      <c r="F31"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>65</v>
+      </c>
+      <c r="B32">
+        <v>96</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="E32"/>
+      <c r="F32"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>72</v>
+      </c>
+      <c r="B33">
+        <v>684</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="E33"/>
+      <c r="F33"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>62</v>
+      </c>
+      <c r="B34">
+        <v>1024</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="E34"/>
+      <c r="F34"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>1978</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>604358</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>68</v>
+      </c>
+      <c r="B37">
+        <v>35440</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>53</v>
+      </c>
+      <c r="B38">
+        <v>64</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>77</v>
+      </c>
+      <c r="B39">
+        <v>731499</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40">
+        <v>14080</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>84</v>
+      </c>
+      <c r="B41">
+        <v>683636</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>91</v>
+      </c>
+      <c r="B42">
+        <v>30173</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>30</v>
+      </c>
+      <c r="B43">
+        <v>930</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>94</v>
+      </c>
+      <c r="B44">
+        <v>2147483647</v>
+      </c>
+      <c r="C44">
+        <v>2147483647</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45">
+        <v>2147483647</v>
+      </c>
+      <c r="C45">
+        <v>2147483647</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>56</v>
+      </c>
+      <c r="B46">
+        <v>2147483647</v>
+      </c>
+      <c r="C46">
+        <v>2147483647</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>11</v>
+      </c>
+      <c r="B47">
+        <v>2147483647</v>
+      </c>
+      <c r="C47">
+        <v>2147483647</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>70</v>
+      </c>
+      <c r="B48">
+        <v>2147483647</v>
+      </c>
+      <c r="C48">
+        <v>2147483647</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>83</v>
+      </c>
+      <c r="B49">
+        <v>2147483647</v>
+      </c>
+      <c r="C49">
+        <v>2147483647</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>28</v>
+      </c>
+      <c r="B50">
+        <v>2147483647</v>
+      </c>
+      <c r="C50">
+        <v>2147483647</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>78</v>
+      </c>
+      <c r="B51">
+        <v>2147483647</v>
+      </c>
+      <c r="C51">
+        <v>2147483647</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>26</v>
+      </c>
+      <c r="B52">
+        <v>2147483647</v>
+      </c>
+      <c r="C52">
+        <v>2147483647</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>18</v>
+      </c>
+      <c r="B53">
+        <v>2147483647</v>
+      </c>
+      <c r="C53">
+        <v>2147483647</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>43</v>
+      </c>
+      <c r="B54">
+        <v>2147483647</v>
+      </c>
+      <c r="C54">
+        <v>2147483647</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>59</v>
+      </c>
+      <c r="B55">
+        <v>2147483647</v>
+      </c>
+      <c r="C55">
+        <v>2147483647</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>81</v>
+      </c>
+      <c r="B56">
+        <v>2147483647</v>
+      </c>
+      <c r="C56">
+        <v>2147483647</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>0</v>
+      </c>
+      <c r="B57">
+        <v>2147483647</v>
+      </c>
+      <c r="C57">
+        <v>2147483647</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>29</v>
+      </c>
+      <c r="B58">
+        <v>2147483647</v>
+      </c>
+      <c r="C58">
+        <v>2147483647</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>73</v>
+      </c>
+      <c r="B59">
+        <v>2147483647</v>
+      </c>
+      <c r="C59">
+        <v>2147483647</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>19</v>
+      </c>
+      <c r="B60">
+        <v>2147483647</v>
+      </c>
+      <c r="C60">
+        <v>2147483647</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>12</v>
+      </c>
+      <c r="B61">
+        <v>2147483647</v>
+      </c>
+      <c r="C61">
+        <v>2147483647</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>9</v>
+      </c>
+      <c r="B62">
+        <v>2147483647</v>
+      </c>
+      <c r="C62">
+        <v>2147483647</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>1</v>
+      </c>
+      <c r="B63">
+        <v>2147483647</v>
+      </c>
+      <c r="C63">
+        <v>2147483647</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>14</v>
+      </c>
+      <c r="B64">
+        <v>2147483647</v>
+      </c>
+      <c r="C64">
+        <v>2147483647</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>10</v>
+      </c>
+      <c r="B65">
+        <v>2147483647</v>
+      </c>
+      <c r="C65">
+        <v>2147483647</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>61</v>
+      </c>
+      <c r="B66">
+        <v>2147483647</v>
+      </c>
+      <c r="C66">
+        <v>2147483647</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>49</v>
+      </c>
+      <c r="B67">
+        <v>2147483647</v>
+      </c>
+      <c r="C67">
+        <v>2147483647</v>
+      </c>
+      <c r="E67"/>
+      <c r="F67"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>74</v>
+      </c>
+      <c r="B68">
+        <v>2147483647</v>
+      </c>
+      <c r="C68">
+        <v>2147483647</v>
+      </c>
+      <c r="E68"/>
+      <c r="F68"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>52</v>
+      </c>
+      <c r="B69">
+        <v>2147483647</v>
+      </c>
+      <c r="C69">
+        <v>2147483647</v>
+      </c>
+      <c r="E69"/>
+      <c r="F69"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>20</v>
+      </c>
+      <c r="B70">
+        <v>2147483647</v>
+      </c>
+      <c r="C70">
+        <v>2147483647</v>
+      </c>
+      <c r="E70"/>
+      <c r="F70"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>76</v>
+      </c>
+      <c r="B71">
+        <v>2147483647</v>
+      </c>
+      <c r="C71">
+        <v>2147483647</v>
+      </c>
+      <c r="E71"/>
+      <c r="F71"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B72">
+        <v>2147483647</v>
+      </c>
+      <c r="C72">
+        <v>2147483647</v>
+      </c>
+      <c r="E72"/>
+      <c r="F72"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>15</v>
+      </c>
+      <c r="B73">
+        <v>2147483647</v>
+      </c>
+      <c r="C73">
+        <v>2147483647</v>
+      </c>
+      <c r="E73"/>
+      <c r="F73"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>88</v>
+      </c>
+      <c r="B74">
+        <v>2147483647</v>
+      </c>
+      <c r="C74">
+        <v>2147483647</v>
+      </c>
+      <c r="E74"/>
+      <c r="F74"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>25</v>
+      </c>
+      <c r="B75">
+        <v>2147483647</v>
+      </c>
+      <c r="C75">
+        <v>2147483647</v>
+      </c>
+      <c r="E75"/>
+      <c r="F75"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>93</v>
+      </c>
+      <c r="B76">
+        <v>2147483647</v>
+      </c>
+      <c r="C76">
+        <v>2147483647</v>
+      </c>
+      <c r="E76"/>
+      <c r="F76"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>21</v>
+      </c>
+      <c r="B77">
+        <v>2147483647</v>
+      </c>
+      <c r="C77">
+        <v>2147483647</v>
+      </c>
+      <c r="E77"/>
+      <c r="F77"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>55</v>
+      </c>
+      <c r="B78">
+        <v>2147483647</v>
+      </c>
+      <c r="C78">
+        <v>2147483647</v>
+      </c>
+      <c r="E78"/>
+      <c r="F78"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>5</v>
+      </c>
+      <c r="B79">
+        <v>2147483647</v>
+      </c>
+      <c r="C79">
+        <v>2147483647</v>
+      </c>
+      <c r="E79"/>
+      <c r="F79"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>67</v>
+      </c>
+      <c r="B80">
+        <v>2147483647</v>
+      </c>
+      <c r="C80">
+        <v>2147483647</v>
+      </c>
+      <c r="E80"/>
+      <c r="F80"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>27</v>
+      </c>
+      <c r="B81">
+        <v>2147483647</v>
+      </c>
+      <c r="C81">
+        <v>2147483647</v>
+      </c>
+      <c r="E81"/>
+      <c r="F81"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>23</v>
+      </c>
+      <c r="B82">
+        <v>2147483647</v>
+      </c>
+      <c r="C82">
+        <v>2147483647</v>
+      </c>
+      <c r="E82"/>
+      <c r="F82"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>16</v>
+      </c>
+      <c r="B83">
+        <v>2147483647</v>
+      </c>
+      <c r="C83">
+        <v>2147483647</v>
+      </c>
+      <c r="E83"/>
+      <c r="F83"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>85</v>
+      </c>
+      <c r="B84">
+        <v>2147483647</v>
+      </c>
+      <c r="C84">
+        <v>2147483647</v>
+      </c>
+      <c r="E84"/>
+      <c r="F84"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>58</v>
+      </c>
+      <c r="B85">
+        <v>2147483647</v>
+      </c>
+      <c r="C85">
+        <v>2147483647</v>
+      </c>
+      <c r="E85"/>
+      <c r="F85"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>13</v>
+      </c>
+      <c r="B86">
+        <v>2147483647</v>
+      </c>
+      <c r="C86">
+        <v>2147483647</v>
+      </c>
+      <c r="E86"/>
+      <c r="F86"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>87</v>
+      </c>
+      <c r="B87">
+        <v>2147483647</v>
+      </c>
+      <c r="C87">
+        <v>2147483647</v>
+      </c>
+      <c r="E87"/>
+      <c r="F87"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>34</v>
+      </c>
+      <c r="B88">
+        <v>2147483647</v>
+      </c>
+      <c r="C88">
+        <v>2147483647</v>
+      </c>
+      <c r="E88"/>
+      <c r="F88"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>17</v>
+      </c>
+      <c r="B89">
+        <v>2147483647</v>
+      </c>
+      <c r="C89">
+        <v>2147483647</v>
+      </c>
+      <c r="E89"/>
+      <c r="F89"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>6</v>
+      </c>
+      <c r="B90">
+        <v>2147483647</v>
+      </c>
+      <c r="C90">
+        <v>2147483647</v>
+      </c>
+      <c r="E90"/>
+      <c r="F90"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>24</v>
+      </c>
+      <c r="B91">
+        <v>2147483647</v>
+      </c>
+      <c r="C91">
+        <v>2147483647</v>
+      </c>
+      <c r="E91"/>
+      <c r="F91"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>8</v>
+      </c>
+      <c r="B92">
+        <v>2147483647</v>
+      </c>
+      <c r="C92">
+        <v>2147483647</v>
+      </c>
+      <c r="E92"/>
+      <c r="F92"/>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>45</v>
+      </c>
+      <c r="B93">
+        <v>2147483647</v>
+      </c>
+      <c r="C93">
+        <v>2147483647</v>
+      </c>
+      <c r="E93"/>
+      <c r="F93"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>44</v>
+      </c>
+      <c r="B94">
+        <v>2147483647</v>
+      </c>
+      <c r="C94">
+        <v>2147483647</v>
+      </c>
+      <c r="E94"/>
+      <c r="F94"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>4</v>
+      </c>
+      <c r="B95">
+        <v>2147483647</v>
+      </c>
+      <c r="C95">
+        <v>2147483647</v>
+      </c>
+      <c r="E95"/>
+      <c r="F95"/>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>3</v>
+      </c>
+      <c r="B96">
+        <v>2147483647</v>
+      </c>
+      <c r="C96">
+        <v>2147483647</v>
+      </c>
+      <c r="E96"/>
+      <c r="F96"/>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>22</v>
+      </c>
+      <c r="B97">
+        <v>2147483647</v>
+      </c>
+      <c r="C97">
+        <v>2147483647</v>
+      </c>
+      <c r="E97"/>
+      <c r="F97"/>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E98"/>
+      <c r="F98"/>
+    </row>
+    <row r="114" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E114"/>
+      <c r="F114"/>
+    </row>
+    <row r="115" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E115"/>
+      <c r="F115"/>
+    </row>
+    <row r="116" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E116"/>
+      <c r="F116"/>
+    </row>
+    <row r="117" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E117"/>
+      <c r="F117"/>
+    </row>
+    <row r="118" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E118"/>
+      <c r="F118"/>
+    </row>
+    <row r="119" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E119"/>
+      <c r="F119"/>
+    </row>
+    <row r="120" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E120"/>
+      <c r="F120"/>
+    </row>
+    <row r="121" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E121"/>
+      <c r="F121"/>
+    </row>
+    <row r="122" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E122"/>
+      <c r="F122"/>
+    </row>
+    <row r="123" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E123"/>
+      <c r="F123"/>
+    </row>
+    <row r="124" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E124"/>
+      <c r="F124"/>
+    </row>
+    <row r="125" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E125"/>
+      <c r="F125"/>
+    </row>
+    <row r="126" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E126"/>
+      <c r="F126"/>
+    </row>
+    <row r="127" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E127"/>
+      <c r="F127"/>
+    </row>
+  </sheetData>
+  <sortState ref="A5:C97">
+    <sortCondition ref="C5:C97"/>
+  </sortState>
+  <mergeCells count="3">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H127"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="5" max="5" width="30.5703125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="34.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="38" customWidth="1"/>
+    <col min="9" max="9" width="23" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.28515625" customWidth="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+    </row>
+    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5">
+        <v>2583</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6">
+        <v>288643</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3">
+        <f>COUNTIF(C:C,"&lt;= 1")</f>
+        <v>9</v>
+      </c>
+      <c r="G6">
+        <f t="shared" ref="G6:G16" si="0" xml:space="preserve"> 100 * F6 / 93</f>
+        <v>9.67741935483871</v>
+      </c>
+      <c r="H6">
+        <v>4.0200000000000001E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7">
+        <v>2010453</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2</v>
+      </c>
+      <c r="F7" s="3">
+        <f>COUNTIF(C:C,"&lt;= 2")</f>
+        <v>14</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>15.053763440860216</v>
+      </c>
+      <c r="H7">
+        <v>4.0200000000000001E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8">
+        <v>13567</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3">
+        <v>3</v>
+      </c>
+      <c r="F8" s="3">
+        <f>COUNTIF(C:C,"&lt;= 3")</f>
+        <v>14</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>15.053763440860216</v>
+      </c>
+      <c r="H8">
+        <v>4.0200000000000001E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9">
+        <v>17413</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3">
+        <v>5</v>
+      </c>
+      <c r="F9" s="3">
+        <f>COUNTIF(C:C,"&lt;=5")</f>
+        <v>18</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>19.35483870967742</v>
+      </c>
+      <c r="H9">
+        <v>4.0200000000000001E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10">
+        <v>582720</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3">
+        <v>8</v>
+      </c>
+      <c r="F10" s="3">
+        <f>COUNTIF(C:C,"&lt;= 8")</f>
+        <v>19</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>20.43010752688172</v>
+      </c>
+      <c r="H10">
+        <v>4.0200000000000001E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11">
+        <v>604358</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3">
+        <v>10</v>
+      </c>
+      <c r="F11" s="3">
+        <f>COUNTIF(C:C,"&lt;= 10")</f>
+        <v>21</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>22.580645161290324</v>
+      </c>
+      <c r="H11">
+        <v>4.0200000000000001E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12">
+        <v>731499</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3">
+        <v>20</v>
+      </c>
+      <c r="F12" s="3">
+        <f>COUNTIF(C:C,"&lt;= 20")</f>
+        <v>27</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>29.032258064516128</v>
+      </c>
+      <c r="H12">
+        <v>4.0200000000000001E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B13">
+        <v>683636</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="E13" s="3">
+        <v>30</v>
+      </c>
+      <c r="F13" s="3">
+        <f>COUNTIF(C:C,"&lt;= 30")</f>
+        <v>34</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>36.55913978494624</v>
+      </c>
+      <c r="H13">
+        <v>4.0200000000000001E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14">
+        <v>902654</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="E14" s="3">
+        <v>50</v>
+      </c>
+      <c r="F14" s="3">
+        <f>COUNTIF(C:C,"&lt;= 50")</f>
+        <v>46</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>49.462365591397848</v>
+      </c>
+      <c r="H14">
+        <v>4.0200000000000001E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15">
+        <v>7034</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="E15" s="3">
+        <v>100</v>
+      </c>
+      <c r="F15" s="3">
+        <f>COUNTIF(C:C,"&lt;= 100")</f>
+        <v>66</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>70.967741935483872</v>
+      </c>
+      <c r="H15">
+        <v>4.0200000000000001E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16">
+        <v>5123</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="E16" s="3">
+        <v>500</v>
+      </c>
+      <c r="F16" s="3">
+        <f>COUNTIF(C:C,"&lt;= 500")</f>
+        <v>66</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>70.967741935483872</v>
+      </c>
+      <c r="H16">
+        <v>4.0200000000000001E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17">
+        <v>1318</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18">
+        <v>1534725</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19">
+        <v>957011</v>
+      </c>
+      <c r="C19">
+        <v>4</v>
+      </c>
+      <c r="E19"/>
+      <c r="F19"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20">
+        <v>35440</v>
+      </c>
+      <c r="C20">
+        <v>4</v>
+      </c>
+      <c r="E20"/>
+      <c r="F20"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>87</v>
+      </c>
+      <c r="B21">
+        <v>57236</v>
+      </c>
+      <c r="C21">
+        <v>4</v>
+      </c>
+      <c r="E21"/>
+      <c r="F21"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22">
+        <v>7538</v>
+      </c>
+      <c r="C22">
+        <v>5</v>
+      </c>
+      <c r="E22"/>
+      <c r="F22"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>96</v>
+      </c>
+      <c r="B23">
+        <v>1804</v>
+      </c>
+      <c r="C23">
+        <v>6</v>
+      </c>
+      <c r="E23"/>
+      <c r="F23"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>564260</v>
+      </c>
+      <c r="C24">
+        <v>9</v>
+      </c>
+      <c r="E24"/>
+      <c r="F24"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25">
+        <v>6711</v>
+      </c>
+      <c r="C25">
+        <v>10</v>
+      </c>
+      <c r="E25"/>
+      <c r="F25"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26">
+        <v>684</v>
+      </c>
+      <c r="C26">
+        <v>11</v>
+      </c>
+      <c r="E26"/>
+      <c r="F26"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27">
+        <v>1978</v>
+      </c>
+      <c r="C27">
+        <v>12</v>
+      </c>
+      <c r="E27"/>
+      <c r="F27"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28">
+        <v>85491</v>
+      </c>
+      <c r="C28">
+        <v>14</v>
+      </c>
+      <c r="E28"/>
+      <c r="F28"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29">
+        <v>81864</v>
+      </c>
+      <c r="C29">
+        <v>15</v>
+      </c>
+      <c r="E29"/>
+      <c r="F29"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30">
+        <v>45712</v>
+      </c>
+      <c r="C30">
+        <v>15</v>
+      </c>
+      <c r="E30"/>
+      <c r="F30"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31">
+        <v>107</v>
+      </c>
+      <c r="C31">
+        <v>17</v>
+      </c>
+      <c r="E31"/>
+      <c r="F31"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32">
+        <v>5123</v>
+      </c>
+      <c r="C32">
+        <v>22</v>
+      </c>
+      <c r="E32"/>
+      <c r="F32"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>53</v>
+      </c>
+      <c r="B33">
+        <v>64</v>
+      </c>
+      <c r="C33">
+        <v>24</v>
+      </c>
+      <c r="E33"/>
+      <c r="F33"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34">
+        <v>8</v>
+      </c>
+      <c r="C34">
+        <v>26</v>
+      </c>
+      <c r="E34"/>
+      <c r="F34"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>71</v>
+      </c>
+      <c r="B35">
+        <v>135</v>
+      </c>
+      <c r="C35">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>62</v>
+      </c>
+      <c r="B36">
+        <v>1024</v>
+      </c>
+      <c r="C36">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>89</v>
+      </c>
+      <c r="B37">
+        <v>28376</v>
+      </c>
+      <c r="C37">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38">
+        <v>1080362</v>
+      </c>
+      <c r="C38">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>74</v>
+      </c>
+      <c r="B39">
+        <v>17413</v>
+      </c>
+      <c r="C39">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>15</v>
+      </c>
+      <c r="B40">
+        <v>10658</v>
+      </c>
+      <c r="C40">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>91</v>
+      </c>
+      <c r="B41">
+        <v>30173</v>
+      </c>
+      <c r="C41">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42">
+        <v>14080</v>
+      </c>
+      <c r="C42">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>79</v>
+      </c>
+      <c r="B43">
+        <v>106</v>
+      </c>
+      <c r="C43">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>54</v>
+      </c>
+      <c r="B44">
+        <v>30954</v>
+      </c>
+      <c r="C44">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>63</v>
+      </c>
+      <c r="B45">
+        <v>124</v>
+      </c>
+      <c r="C45">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>82</v>
+      </c>
+      <c r="B46">
+        <v>66</v>
+      </c>
+      <c r="C46">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47">
+        <v>442</v>
+      </c>
+      <c r="C47">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>34</v>
+      </c>
+      <c r="B48">
+        <v>174</v>
+      </c>
+      <c r="C48">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>14</v>
+      </c>
+      <c r="B49">
+        <v>246693</v>
+      </c>
+      <c r="C49">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>13</v>
+      </c>
+      <c r="B50">
+        <v>223224</v>
+      </c>
+      <c r="C50">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>90</v>
+      </c>
+      <c r="B51">
+        <v>3416</v>
+      </c>
+      <c r="C51">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>36</v>
+      </c>
+      <c r="B52">
+        <v>1055</v>
+      </c>
+      <c r="C52">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>86</v>
+      </c>
+      <c r="B53">
+        <v>23</v>
+      </c>
+      <c r="C53">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>78</v>
+      </c>
+      <c r="B54">
+        <v>2467</v>
+      </c>
+      <c r="C54">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>69</v>
+      </c>
+      <c r="B55">
+        <v>1052</v>
+      </c>
+      <c r="C55">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>30</v>
+      </c>
+      <c r="B56">
+        <v>930</v>
+      </c>
+      <c r="C56">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>57</v>
+      </c>
+      <c r="B57">
+        <v>1410</v>
+      </c>
+      <c r="C57">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>26</v>
+      </c>
+      <c r="B58">
+        <v>52</v>
+      </c>
+      <c r="C58">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>92</v>
+      </c>
+      <c r="B59">
+        <v>1082</v>
+      </c>
+      <c r="C59">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>9</v>
+      </c>
+      <c r="B60">
+        <v>60754</v>
+      </c>
+      <c r="C60">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>95</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>41</v>
+      </c>
+      <c r="B62">
+        <v>1819</v>
+      </c>
+      <c r="C62">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>16</v>
+      </c>
+      <c r="B63">
+        <v>441348</v>
+      </c>
+      <c r="C63">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>52</v>
+      </c>
+      <c r="B64">
+        <v>1569</v>
+      </c>
+      <c r="C64">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>712</v>
+      </c>
+      <c r="C65">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>11</v>
+      </c>
+      <c r="B66">
+        <v>31421</v>
+      </c>
+      <c r="C66">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>32</v>
+      </c>
+      <c r="B67">
+        <v>1738</v>
+      </c>
+      <c r="C67">
+        <v>88</v>
+      </c>
+      <c r="E67"/>
+      <c r="F67"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>65</v>
+      </c>
+      <c r="B68">
+        <v>96</v>
+      </c>
+      <c r="C68">
+        <v>94</v>
+      </c>
+      <c r="E68"/>
+      <c r="F68"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>17</v>
+      </c>
+      <c r="B69">
+        <v>825</v>
+      </c>
+      <c r="C69">
+        <v>95</v>
+      </c>
+      <c r="E69"/>
+      <c r="F69"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>66</v>
+      </c>
+      <c r="B70">
+        <v>77</v>
+      </c>
+      <c r="C70">
+        <v>96</v>
+      </c>
+      <c r="E70"/>
+      <c r="F70"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>94</v>
+      </c>
+      <c r="B71">
+        <v>2147483647</v>
+      </c>
+      <c r="C71">
+        <v>2147483647</v>
+      </c>
+      <c r="E71"/>
+      <c r="F71"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>7</v>
+      </c>
+      <c r="B72">
+        <v>2147483647</v>
+      </c>
+      <c r="C72">
+        <v>2147483647</v>
+      </c>
+      <c r="E72"/>
+      <c r="F72"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>56</v>
+      </c>
+      <c r="B73">
+        <v>2147483647</v>
+      </c>
+      <c r="C73">
+        <v>2147483647</v>
+      </c>
+      <c r="E73"/>
+      <c r="F73"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>70</v>
+      </c>
+      <c r="B74">
+        <v>2147483647</v>
+      </c>
+      <c r="C74">
+        <v>2147483647</v>
+      </c>
+      <c r="E74"/>
+      <c r="F74"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>83</v>
+      </c>
+      <c r="B75">
+        <v>2147483647</v>
+      </c>
+      <c r="C75">
+        <v>2147483647</v>
+      </c>
+      <c r="E75"/>
+      <c r="F75"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>28</v>
+      </c>
+      <c r="B76">
+        <v>2147483647</v>
+      </c>
+      <c r="C76">
+        <v>2147483647</v>
+      </c>
+      <c r="E76"/>
+      <c r="F76"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>18</v>
+      </c>
+      <c r="B77">
+        <v>2147483647</v>
+      </c>
+      <c r="C77">
+        <v>2147483647</v>
+      </c>
+      <c r="E77"/>
+      <c r="F77"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>43</v>
+      </c>
+      <c r="B78">
+        <v>2147483647</v>
+      </c>
+      <c r="C78">
+        <v>2147483647</v>
+      </c>
+      <c r="E78"/>
+      <c r="F78"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B79">
+        <v>2147483647</v>
+      </c>
+      <c r="C79">
+        <v>2147483647</v>
+      </c>
+      <c r="E79"/>
+      <c r="F79"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>29</v>
+      </c>
+      <c r="B80">
+        <v>2147483647</v>
+      </c>
+      <c r="C80">
+        <v>2147483647</v>
+      </c>
+      <c r="E80"/>
+      <c r="F80"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>73</v>
+      </c>
+      <c r="B81">
+        <v>2147483647</v>
+      </c>
+      <c r="C81">
+        <v>2147483647</v>
+      </c>
+      <c r="E81"/>
+      <c r="F81"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>1</v>
+      </c>
+      <c r="B82">
+        <v>2147483647</v>
+      </c>
+      <c r="C82">
+        <v>2147483647</v>
+      </c>
+      <c r="E82"/>
+      <c r="F82"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>61</v>
+      </c>
+      <c r="B83">
+        <v>2147483647</v>
+      </c>
+      <c r="C83">
+        <v>2147483647</v>
+      </c>
+      <c r="E83"/>
+      <c r="F83"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>20</v>
+      </c>
+      <c r="B84">
+        <v>2147483647</v>
+      </c>
+      <c r="C84">
+        <v>2147483647</v>
+      </c>
+      <c r="E84"/>
+      <c r="F84"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>76</v>
+      </c>
+      <c r="B85">
+        <v>2147483647</v>
+      </c>
+      <c r="C85">
+        <v>2147483647</v>
+      </c>
+      <c r="E85"/>
+      <c r="F85"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>2</v>
+      </c>
+      <c r="B86">
+        <v>2147483647</v>
+      </c>
+      <c r="C86">
+        <v>2147483647</v>
+      </c>
+      <c r="E86"/>
+      <c r="F86"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>88</v>
+      </c>
+      <c r="B87">
+        <v>2147483647</v>
+      </c>
+      <c r="C87">
+        <v>2147483647</v>
+      </c>
+      <c r="E87"/>
+      <c r="F87"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>25</v>
+      </c>
+      <c r="B88">
+        <v>2147483647</v>
+      </c>
+      <c r="C88">
+        <v>2147483647</v>
+      </c>
+      <c r="E88"/>
+      <c r="F88"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>93</v>
+      </c>
+      <c r="B89">
+        <v>2147483647</v>
+      </c>
+      <c r="C89">
+        <v>2147483647</v>
+      </c>
+      <c r="E89"/>
+      <c r="F89"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90">
+        <v>2147483647</v>
+      </c>
+      <c r="C90">
+        <v>2147483647</v>
+      </c>
+      <c r="E90"/>
+      <c r="F90"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>27</v>
+      </c>
+      <c r="B91">
+        <v>2147483647</v>
+      </c>
+      <c r="C91">
+        <v>2147483647</v>
+      </c>
+      <c r="E91"/>
+      <c r="F91"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>85</v>
+      </c>
+      <c r="B92">
+        <v>2147483647</v>
+      </c>
+      <c r="C92">
+        <v>2147483647</v>
+      </c>
+      <c r="E92"/>
+      <c r="F92"/>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>6</v>
+      </c>
+      <c r="B93">
+        <v>2147483647</v>
+      </c>
+      <c r="C93">
+        <v>2147483647</v>
+      </c>
+      <c r="E93"/>
+      <c r="F93"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>8</v>
+      </c>
+      <c r="B94">
+        <v>2147483647</v>
+      </c>
+      <c r="C94">
+        <v>2147483647</v>
+      </c>
+      <c r="E94"/>
+      <c r="F94"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>44</v>
+      </c>
+      <c r="B95">
+        <v>2147483647</v>
+      </c>
+      <c r="C95">
+        <v>2147483647</v>
+      </c>
+      <c r="E95"/>
+      <c r="F95"/>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>4</v>
+      </c>
+      <c r="B96">
+        <v>2147483647</v>
+      </c>
+      <c r="C96">
+        <v>2147483647</v>
+      </c>
+      <c r="E96"/>
+      <c r="F96"/>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>3</v>
+      </c>
+      <c r="B97">
+        <v>2147483647</v>
+      </c>
+      <c r="C97">
+        <v>2147483647</v>
+      </c>
+      <c r="E97"/>
+      <c r="F97"/>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E98"/>
+      <c r="F98"/>
+    </row>
+    <row r="114" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E114"/>
+      <c r="F114"/>
+    </row>
+    <row r="115" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E115"/>
+      <c r="F115"/>
+    </row>
+    <row r="116" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E116"/>
+      <c r="F116"/>
+    </row>
+    <row r="117" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E117"/>
+      <c r="F117"/>
+    </row>
+    <row r="118" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E118"/>
+      <c r="F118"/>
+    </row>
+    <row r="119" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E119"/>
+      <c r="F119"/>
+    </row>
+    <row r="120" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E120"/>
+      <c r="F120"/>
+    </row>
+    <row r="121" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E121"/>
+      <c r="F121"/>
+    </row>
+    <row r="122" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E122"/>
+      <c r="F122"/>
+    </row>
+    <row r="123" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E123"/>
+      <c r="F123"/>
+    </row>
+    <row r="124" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E124"/>
+      <c r="F124"/>
+    </row>
+    <row r="125" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E125"/>
+      <c r="F125"/>
+    </row>
+    <row r="126" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E126"/>
+      <c r="F126"/>
+    </row>
+    <row r="127" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E127"/>
+      <c r="F127"/>
+    </row>
+  </sheetData>
+  <sortState ref="A5:C97">
+    <sortCondition ref="C5:C97"/>
+  </sortState>
+  <mergeCells count="3">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/analysis2.xlsx
+++ b/analysis2.xlsx
@@ -4,20 +4,23 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="6060" yWindow="480" windowWidth="27795" windowHeight="13350" activeTab="3"/>
+    <workbookView xWindow="6060" yWindow="480" windowWidth="27795" windowHeight="13350" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="5.4" sheetId="1" r:id="rId1"/>
     <sheet name="5.5" sheetId="2" r:id="rId2"/>
-    <sheet name="Naive" sheetId="3" r:id="rId3"/>
-    <sheet name="Naive2" sheetId="4" r:id="rId4"/>
+    <sheet name="5.6" sheetId="6" r:id="rId3"/>
+    <sheet name="Naive" sheetId="3" r:id="rId4"/>
+    <sheet name="Naive2" sheetId="4" r:id="rId5"/>
+    <sheet name="Naive3" sheetId="7" r:id="rId6"/>
+    <sheet name="Match Types" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="132">
   <si>
     <t>America</t>
   </si>
@@ -319,7 +322,100 @@
     <t>Results using naïve exact matching on the new dataset</t>
   </si>
   <si>
-    <t>Results using naïve substring matching on the new dataset</t>
+    <t>Match Type</t>
+  </si>
+  <si>
+    <t>ReVerb Entity</t>
+  </si>
+  <si>
+    <t>Freebase Entity</t>
+  </si>
+  <si>
+    <t>Exact match between arg1 and Freebase entity</t>
+  </si>
+  <si>
+    <t>Exact match between cleaned arg1 and cleaned Freebase entity</t>
+  </si>
+  <si>
+    <t>Bill Clinton</t>
+  </si>
+  <si>
+    <t>Titanic</t>
+  </si>
+  <si>
+    <t>Titanic (1997 film)</t>
+  </si>
+  <si>
+    <t>Arg1 is a substring of the Freebase match</t>
+  </si>
+  <si>
+    <t>Christian</t>
+  </si>
+  <si>
+    <t>Christ</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Handled?</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Freebase match is a substring of arg1</t>
+  </si>
+  <si>
+    <t>String overlap between arg1 and Freebase match</t>
+  </si>
+  <si>
+    <t>President Clinton</t>
+  </si>
+  <si>
+    <t>Arg1 is an abbreviation of a Freebase match</t>
+  </si>
+  <si>
+    <t>G.E.</t>
+  </si>
+  <si>
+    <t>General Electric</t>
+  </si>
+  <si>
+    <t>Muammar al-Gaddafi</t>
+  </si>
+  <si>
+    <t>Mostly</t>
+  </si>
+  <si>
+    <t>Prominent Alias between arg1 and Freebase match</t>
+  </si>
+  <si>
+    <t>Misspelling match between arg1 and Freebase match</t>
+  </si>
+  <si>
+    <t>Obscure Alias between arg1 and Freebase match</t>
+  </si>
+  <si>
+    <t>The Red Planet</t>
+  </si>
+  <si>
+    <t>Mars</t>
+  </si>
+  <si>
+    <t>Example Case</t>
+  </si>
+  <si>
+    <t>Results using V5.6 w/ lucene index and 20% cutoff on the new dataset</t>
+  </si>
+  <si>
+    <t>Changed when to use cleaned score and when to use abbrv or substring score</t>
+  </si>
+  <si>
+    <t>Results using naïve pure substring matching on the new dataset</t>
+  </si>
+  <si>
+    <t>Results using naïve word substring matching on the new dataset</t>
   </si>
 </sst>
 </file>
@@ -379,7 +475,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -393,6 +489,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -541,8 +644,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="108000768"/>
-        <c:axId val="67401344"/>
+        <c:axId val="138431488"/>
+        <c:axId val="66942592"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -660,11 +763,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="108001792"/>
-        <c:axId val="67401920"/>
+        <c:axId val="141224448"/>
+        <c:axId val="66943168"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="108000768"/>
+        <c:axId val="138431488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -696,7 +799,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67401344"/>
+        <c:crossAx val="66942592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -704,7 +807,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="67401344"/>
+        <c:axId val="66942592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -734,12 +837,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108000768"/>
+        <c:crossAx val="138431488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="67401920"/>
+        <c:axId val="66943168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -771,12 +874,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108001792"/>
+        <c:crossAx val="141224448"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="108001792"/>
+        <c:axId val="141224448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -786,7 +889,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67401920"/>
+        <c:crossAx val="66943168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -943,8 +1046,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="111411200"/>
-        <c:axId val="108044864"/>
+        <c:axId val="138428928"/>
+        <c:axId val="141271616"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1062,11 +1165,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="65701376"/>
-        <c:axId val="108045440"/>
+        <c:axId val="141424128"/>
+        <c:axId val="141272192"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="111411200"/>
+        <c:axId val="138428928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1092,13 +1195,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108044864"/>
+        <c:crossAx val="141271616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1106,7 +1210,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="108044864"/>
+        <c:axId val="141271616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -1130,18 +1234,19 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111411200"/>
+        <c:crossAx val="138428928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="108045440"/>
+        <c:axId val="141272192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1167,18 +1272,19 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65701376"/>
+        <c:crossAx val="141424128"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="65701376"/>
+        <c:axId val="141424128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1188,7 +1294,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108045440"/>
+        <c:crossAx val="141272192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1198,6 +1304,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1237,7 +1344,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Naive!$G$5</c:f>
+              <c:f>'5.6'!$G$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1251,7 +1358,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Naive!$E$6:$E$16</c:f>
+              <c:f>'5.6'!$E$6:$E$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1293,42 +1400,42 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Naive!$G$6:$G$16</c:f>
+              <c:f>'5.6'!$G$6:$G$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>40.86021505376344</c:v>
+                  <c:v>67.741935483870961</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41.935483870967744</c:v>
+                  <c:v>75.268817204301072</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41.935483870967744</c:v>
+                  <c:v>78.494623655913983</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41.935483870967744</c:v>
+                  <c:v>82.795698924731184</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41.935483870967744</c:v>
+                  <c:v>83.870967741935488</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41.935483870967744</c:v>
+                  <c:v>86.021505376344081</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>41.935483870967744</c:v>
+                  <c:v>87.096774193548384</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>41.935483870967744</c:v>
+                  <c:v>88.172043010752688</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>41.935483870967744</c:v>
+                  <c:v>91.397849462365585</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>41.935483870967744</c:v>
+                  <c:v>91.397849462365585</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>41.935483870967744</c:v>
+                  <c:v>92.473118279569889</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1345,8 +1452,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="111414784"/>
-        <c:axId val="108047744"/>
+        <c:axId val="141222400"/>
+        <c:axId val="209438976"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1356,7 +1463,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Naive!$H$5</c:f>
+              <c:f>'5.5'!$H$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1370,7 +1477,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Naive!$E$6:$E$16</c:f>
+              <c:f>'5.5'!$E$6:$E$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1412,7 +1519,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Naive!$H$6:$H$16</c:f>
+              <c:f>'5.5'!$H$6:$H$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1464,11 +1571,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="111497728"/>
-        <c:axId val="108048320"/>
+        <c:axId val="53821440"/>
+        <c:axId val="209439552"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="111414784"/>
+        <c:axId val="141222400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1494,13 +1601,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108047744"/>
+        <c:crossAx val="209438976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1508,7 +1616,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="108047744"/>
+        <c:axId val="209438976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -1532,18 +1640,19 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111414784"/>
+        <c:crossAx val="141222400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="108048320"/>
+        <c:axId val="209439552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1569,18 +1678,19 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111497728"/>
+        <c:crossAx val="53821440"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="111497728"/>
+        <c:axId val="53821440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1590,7 +1700,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108048320"/>
+        <c:crossAx val="209439552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1600,6 +1710,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1639,7 +1750,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Naive2!$G$5</c:f>
+              <c:f>Naive!$G$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1653,7 +1764,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Naive2!$E$6:$E$16</c:f>
+              <c:f>Naive!$E$6:$E$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1695,42 +1806,42 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Naive2!$G$6:$G$16</c:f>
+              <c:f>Naive!$G$6:$G$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>9.67741935483871</c:v>
+                  <c:v>40.86021505376344</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15.053763440860216</c:v>
+                  <c:v>41.935483870967744</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15.053763440860216</c:v>
+                  <c:v>41.935483870967744</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19.35483870967742</c:v>
+                  <c:v>41.935483870967744</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20.43010752688172</c:v>
+                  <c:v>41.935483870967744</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22.580645161290324</c:v>
+                  <c:v>41.935483870967744</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>29.032258064516128</c:v>
+                  <c:v>41.935483870967744</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>36.55913978494624</c:v>
+                  <c:v>41.935483870967744</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>49.462365591397848</c:v>
+                  <c:v>41.935483870967744</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>70.967741935483872</c:v>
+                  <c:v>41.935483870967744</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>70.967741935483872</c:v>
+                  <c:v>41.935483870967744</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1747,8 +1858,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="111499264"/>
-        <c:axId val="108050624"/>
+        <c:axId val="141225472"/>
+        <c:axId val="141274496"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1758,7 +1869,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Naive2!$H$5</c:f>
+              <c:f>Naive!$H$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1772,7 +1883,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Naive2!$E$6:$E$16</c:f>
+              <c:f>Naive!$E$6:$E$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1814,7 +1925,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Naive2!$H$6:$H$16</c:f>
+              <c:f>Naive!$H$6:$H$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1866,11 +1977,413 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="108000256"/>
-        <c:axId val="108051200"/>
+        <c:axId val="143999488"/>
+        <c:axId val="141275072"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="111499264"/>
+        <c:axId val="141225472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of Matches</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="141274496"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="141274496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Percent of Correct Matches Found</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="141225472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="141275072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Per Entry (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="143999488"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="143999488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="141275072"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Naive2!$G$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Percent of Correct Matches Found</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Naive2!$E$6:$E$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Naive2!$G$6:$G$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>9.67741935483871</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.053763440860216</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.053763440860216</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19.35483870967742</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.43010752688172</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22.580645161290324</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>29.032258064516128</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>36.55913978494624</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>49.462365591397848</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>70.967741935483872</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70.967741935483872</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="141425152"/>
+        <c:axId val="141277376"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Naive2!$H$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Time per Entity (s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Naive2!$E$6:$E$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Naive2!$H$6:$H$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>4.0200000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0200000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0200000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0200000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0200000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.0200000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.0200000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0200000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.0200000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.0200000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.0200000000000001E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="144002560"/>
+        <c:axId val="141277952"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="141425152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1903,7 +2416,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108050624"/>
+        <c:crossAx val="141277376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1911,7 +2424,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="108050624"/>
+        <c:axId val="141277376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -1942,12 +2455,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111499264"/>
+        <c:crossAx val="141425152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="108051200"/>
+        <c:axId val="141277952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1980,12 +2493,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108000256"/>
+        <c:crossAx val="144002560"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="108000256"/>
+        <c:axId val="144002560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1995,7 +2508,413 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108051200"/>
+        <c:crossAx val="141277952"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Naive3!$G$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Percent of Correct Matches Found</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Naive3!$E$6:$E$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Naive3!$G$6:$G$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>44.086021505376344</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>51.612903225806448</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>53.763440860215056</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>56.98924731182796</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>56.98924731182796</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>61.29032258064516</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>63.44086021505376</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>63.44086021505376</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>66.666666666666671</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>66.666666666666671</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>73.118279569892479</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="95392256"/>
+        <c:axId val="42121408"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Naive3!$H$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Time per Entity (s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Naive3!$E$6:$E$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Naive3!$H$6:$H$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>4.0200000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0200000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0200000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0200000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0200000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.0200000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.0200000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0200000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.0200000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.0200000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.0200000000000001E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="141435904"/>
+        <c:axId val="42121984"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="95392256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of Matches</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="42121408"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="42121408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Percent of Correct Matches Found</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="95392256"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="42121984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Per Entry (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="141435904"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="141435904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="42121984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2132,6 +3051,80 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1714500</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1714500</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3872,7 +4865,7 @@
   <dimension ref="A1:H127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="C5" sqref="A5:C97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4285,10 +5278,10 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B22">
-        <v>13567</v>
+        <v>564260</v>
       </c>
       <c r="C22">
         <v>4</v>
@@ -4298,10 +5291,10 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B23">
-        <v>825</v>
+        <v>13567</v>
       </c>
       <c r="C23">
         <v>4</v>
@@ -4311,10 +5304,10 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B24">
-        <v>564260</v>
+        <v>825</v>
       </c>
       <c r="C24">
         <v>4</v>
@@ -4337,10 +5330,10 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="B26">
-        <v>902654</v>
+        <v>2010453</v>
       </c>
       <c r="C26">
         <v>3</v>
@@ -4350,10 +5343,10 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="B27">
-        <v>2010453</v>
+        <v>902654</v>
       </c>
       <c r="C27">
         <v>3</v>
@@ -4376,10 +5369,10 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>2467</v>
+        <v>23780</v>
       </c>
       <c r="C29">
         <v>2</v>
@@ -4389,10 +5382,10 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B30">
-        <v>52</v>
+        <v>1347237</v>
       </c>
       <c r="C30">
         <v>2</v>
@@ -4402,10 +5395,10 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="B31">
-        <v>1347237</v>
+        <v>81864</v>
       </c>
       <c r="C31">
         <v>2</v>
@@ -4441,10 +5434,10 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="B34">
-        <v>23780</v>
+        <v>2467</v>
       </c>
       <c r="C34">
         <v>2</v>
@@ -4465,10 +5458,10 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="B36">
-        <v>81864</v>
+        <v>52</v>
       </c>
       <c r="C36">
         <v>2</v>
@@ -4476,7 +5469,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -4487,10 +5480,10 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="B38">
-        <v>30954</v>
+        <v>930</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -4498,10 +5491,10 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="B39">
-        <v>1052</v>
+        <v>8</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -4509,10 +5502,10 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="B40">
-        <v>7538</v>
+        <v>1738</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -4520,10 +5513,10 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="B41">
-        <v>1052</v>
+        <v>1978</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -4531,10 +5524,10 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="B42">
-        <v>135</v>
+        <v>174</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -4542,10 +5535,10 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>83</v>
+        <v>35</v>
       </c>
       <c r="B43">
-        <v>142064</v>
+        <v>604358</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -4553,10 +5546,10 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="B44">
-        <v>1410</v>
+        <v>1055</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -4564,10 +5557,10 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B45">
-        <v>442</v>
+        <v>1819</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -4575,10 +5568,10 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="B46">
-        <v>11</v>
+        <v>288643</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -4586,10 +5579,10 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>95</v>
+        <v>43</v>
       </c>
       <c r="B47">
-        <v>1</v>
+        <v>565471</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -4597,10 +5590,10 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B48">
-        <v>565471</v>
+        <v>4165</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -4608,10 +5601,10 @@
     </row>
     <row r="49" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="B49">
-        <v>2583</v>
+        <v>45712</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -4619,10 +5612,10 @@
     </row>
     <row r="50" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="B50">
-        <v>288643</v>
+        <v>11</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -4630,10 +5623,10 @@
     </row>
     <row r="51" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="B51">
-        <v>1</v>
+        <v>14080</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -4641,10 +5634,10 @@
     </row>
     <row r="52" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B52">
-        <v>1819</v>
+        <v>442</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -4652,10 +5645,10 @@
     </row>
     <row r="53" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="B53">
-        <v>3416</v>
+        <v>107</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -4663,10 +5656,10 @@
     </row>
     <row r="54" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="B54">
-        <v>28376</v>
+        <v>5123</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -4674,10 +5667,10 @@
     </row>
     <row r="55" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="B55">
-        <v>53553</v>
+        <v>5123</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -4685,10 +5678,10 @@
     </row>
     <row r="56" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="B56">
-        <v>106</v>
+        <v>7034</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -4696,10 +5689,10 @@
     </row>
     <row r="57" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="B57">
-        <v>1804</v>
+        <v>1569</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -4707,10 +5700,10 @@
     </row>
     <row r="58" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="B58">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -4718,10 +5711,10 @@
     </row>
     <row r="59" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B59">
-        <v>2216</v>
+        <v>30954</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -4729,10 +5722,10 @@
     </row>
     <row r="60" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="B60">
-        <v>107</v>
+        <v>7538</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -4740,10 +5733,10 @@
     </row>
     <row r="61" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B61">
-        <v>5123</v>
+        <v>7538</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -4751,10 +5744,10 @@
     </row>
     <row r="62" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="B62">
-        <v>17413</v>
+        <v>7538</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -4762,10 +5755,10 @@
     </row>
     <row r="63" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B63">
-        <v>7034</v>
+        <v>1410</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -4773,10 +5766,10 @@
     </row>
     <row r="64" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B64">
-        <v>5123</v>
+        <v>17413</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -4784,10 +5777,10 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="B65">
-        <v>13567</v>
+        <v>2216</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -4795,10 +5788,10 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="B66">
-        <v>1082</v>
+        <v>1024</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -4806,10 +5799,10 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="B67">
-        <v>1055</v>
+        <v>124</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -4819,10 +5812,10 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B68">
-        <v>77</v>
+        <v>712</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -4832,10 +5825,10 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="B69">
-        <v>930</v>
+        <v>96</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -4845,10 +5838,10 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="B70">
-        <v>1738</v>
+        <v>77</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -4858,10 +5851,10 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B71">
-        <v>712</v>
+        <v>35440</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -4871,10 +5864,10 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="B72">
-        <v>1569</v>
+        <v>1052</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -4884,10 +5877,10 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="B73">
-        <v>7538</v>
+        <v>1052</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -4897,10 +5890,10 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="B74">
-        <v>23</v>
+        <v>135</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -4910,10 +5903,10 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="B75">
-        <v>124</v>
+        <v>684</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -4923,10 +5916,10 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B76">
-        <v>451</v>
+        <v>53553</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -4936,10 +5929,10 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B77">
-        <v>1318</v>
+        <v>17413</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -4949,10 +5942,10 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="B78">
-        <v>17413</v>
+        <v>13567</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -4962,10 +5955,10 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="B79">
-        <v>1</v>
+        <v>451</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -4975,10 +5968,10 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B80">
-        <v>66</v>
+        <v>731499</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -4988,10 +5981,10 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="B81">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -5001,10 +5994,10 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="B82">
-        <v>684</v>
+        <v>1318</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -5014,10 +6007,10 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B83">
-        <v>1220</v>
+        <v>2583</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -5027,10 +6020,10 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="B84">
-        <v>7538</v>
+        <v>66</v>
       </c>
       <c r="C84">
         <v>1</v>
@@ -5040,10 +6033,10 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="B85">
-        <v>1024</v>
+        <v>142064</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -5053,10 +6046,10 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="B86">
-        <v>1978</v>
+        <v>683636</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -5066,10 +6059,10 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>35</v>
+        <v>86</v>
       </c>
       <c r="B87">
-        <v>604358</v>
+        <v>23</v>
       </c>
       <c r="C87">
         <v>1</v>
@@ -5079,10 +6072,10 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="B88">
-        <v>35440</v>
+        <v>57236</v>
       </c>
       <c r="C88">
         <v>1</v>
@@ -5092,10 +6085,10 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="B89">
-        <v>64</v>
+        <v>1</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -5105,10 +6098,10 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="B90">
-        <v>731499</v>
+        <v>28376</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -5118,10 +6111,10 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="B91">
-        <v>14080</v>
+        <v>3416</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -5131,10 +6124,10 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="B92">
-        <v>683636</v>
+        <v>30173</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -5144,10 +6137,10 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B93">
-        <v>57236</v>
+        <v>1082</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -5157,10 +6150,10 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>34</v>
+        <v>93</v>
       </c>
       <c r="B94">
-        <v>174</v>
+        <v>1220</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -5170,10 +6163,10 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="B95">
-        <v>45712</v>
+        <v>1</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -5183,10 +6176,10 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="B96">
-        <v>4165</v>
+        <v>1</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -5196,10 +6189,10 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B97">
-        <v>30173</v>
+        <v>1804</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -5269,7 +6262,8 @@
     </row>
   </sheetData>
   <sortState ref="A5:C97">
-    <sortCondition descending="1" ref="C5"/>
+    <sortCondition descending="1" ref="C5:C97"/>
+    <sortCondition ref="A5:A97"/>
   </sortState>
   <mergeCells count="3">
     <mergeCell ref="A1:H1"/>
@@ -5282,6 +6276,1424 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H127"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="5" max="5" width="30.5703125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="34.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="38" customWidth="1"/>
+    <col min="9" max="9" width="23" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.28515625" customWidth="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+    </row>
+    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+    </row>
+    <row r="3" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>2147483647</v>
+      </c>
+      <c r="C5">
+        <v>2147483647</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>2147483647</v>
+      </c>
+      <c r="C6">
+        <v>2147483647</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3">
+        <f>COUNTIF(C:C,"&lt;= 1")</f>
+        <v>63</v>
+      </c>
+      <c r="G6">
+        <f t="shared" ref="G6:G16" si="0" xml:space="preserve"> 100 * F6 / 93</f>
+        <v>67.741935483870961</v>
+      </c>
+      <c r="H6">
+        <v>4.0200000000000001E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>2147483647</v>
+      </c>
+      <c r="C7">
+        <v>2147483647</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2</v>
+      </c>
+      <c r="F7" s="3">
+        <f>COUNTIF(C:C,"&lt;= 2")</f>
+        <v>70</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>75.268817204301072</v>
+      </c>
+      <c r="H7">
+        <v>4.0200000000000001E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>2271285</v>
+      </c>
+      <c r="C8">
+        <v>633</v>
+      </c>
+      <c r="E8" s="3">
+        <v>3</v>
+      </c>
+      <c r="F8" s="3">
+        <f>COUNTIF(C:C,"&lt;= 3")</f>
+        <v>73</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>78.494623655913983</v>
+      </c>
+      <c r="H8">
+        <v>4.0200000000000001E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>2271285</v>
+      </c>
+      <c r="C9">
+        <v>616</v>
+      </c>
+      <c r="E9" s="3">
+        <v>5</v>
+      </c>
+      <c r="F9" s="3">
+        <f>COUNTIF(C:C,"&lt;=5")</f>
+        <v>77</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>82.795698924731184</v>
+      </c>
+      <c r="H9">
+        <v>4.0200000000000001E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>2271285</v>
+      </c>
+      <c r="C10">
+        <v>610</v>
+      </c>
+      <c r="E10" s="3">
+        <v>8</v>
+      </c>
+      <c r="F10" s="3">
+        <f>COUNTIF(C:C,"&lt;= 8")</f>
+        <v>78</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>83.870967741935488</v>
+      </c>
+      <c r="H10">
+        <v>4.0200000000000001E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>115504</v>
+      </c>
+      <c r="C11">
+        <v>561</v>
+      </c>
+      <c r="E11" s="3">
+        <v>10</v>
+      </c>
+      <c r="F11" s="3">
+        <f>COUNTIF(C:C,"&lt;= 10")</f>
+        <v>80</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>86.021505376344081</v>
+      </c>
+      <c r="H11">
+        <v>4.0200000000000001E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>1263249</v>
+      </c>
+      <c r="C12">
+        <v>215</v>
+      </c>
+      <c r="E12" s="3">
+        <v>20</v>
+      </c>
+      <c r="F12" s="3">
+        <f>COUNTIF(C:C,"&lt;= 20")</f>
+        <v>81</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>87.096774193548384</v>
+      </c>
+      <c r="H12">
+        <v>4.0200000000000001E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>957011</v>
+      </c>
+      <c r="C13">
+        <v>48</v>
+      </c>
+      <c r="E13" s="3">
+        <v>30</v>
+      </c>
+      <c r="F13" s="3">
+        <f>COUNTIF(C:C,"&lt;= 30")</f>
+        <v>82</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>88.172043010752688</v>
+      </c>
+      <c r="H13">
+        <v>4.0200000000000001E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14">
+        <v>1080362</v>
+      </c>
+      <c r="C14">
+        <v>42</v>
+      </c>
+      <c r="E14" s="3">
+        <v>50</v>
+      </c>
+      <c r="F14" s="3">
+        <f>COUNTIF(C:C,"&lt;= 50")</f>
+        <v>85</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>91.397849462365585</v>
+      </c>
+      <c r="H14">
+        <v>4.0200000000000001E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15">
+        <v>60754</v>
+      </c>
+      <c r="C15">
+        <v>39</v>
+      </c>
+      <c r="E15" s="3">
+        <v>100</v>
+      </c>
+      <c r="F15" s="3">
+        <f>COUNTIF(C:C,"&lt;= 100")</f>
+        <v>85</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>91.397849462365585</v>
+      </c>
+      <c r="H15">
+        <v>4.0200000000000001E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16">
+        <v>31421</v>
+      </c>
+      <c r="C16">
+        <v>22</v>
+      </c>
+      <c r="E16" s="3">
+        <v>500</v>
+      </c>
+      <c r="F16" s="3">
+        <f>COUNTIF(C:C,"&lt;= 500")</f>
+        <v>86</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>92.473118279569889</v>
+      </c>
+      <c r="H16">
+        <v>4.0200000000000001E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17">
+        <v>223224</v>
+      </c>
+      <c r="C17">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18">
+        <v>246693</v>
+      </c>
+      <c r="C18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19">
+        <v>441348</v>
+      </c>
+      <c r="C19">
+        <v>9</v>
+      </c>
+      <c r="E19"/>
+      <c r="F19"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20">
+        <v>1534725</v>
+      </c>
+      <c r="C20">
+        <v>8</v>
+      </c>
+      <c r="E20"/>
+      <c r="F20"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21">
+        <v>10658</v>
+      </c>
+      <c r="C21">
+        <v>4</v>
+      </c>
+      <c r="E21"/>
+      <c r="F21"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <v>564260</v>
+      </c>
+      <c r="C22">
+        <v>4</v>
+      </c>
+      <c r="E22"/>
+      <c r="F22"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23">
+        <v>13567</v>
+      </c>
+      <c r="C23">
+        <v>4</v>
+      </c>
+      <c r="E23"/>
+      <c r="F23"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24">
+        <v>825</v>
+      </c>
+      <c r="C24">
+        <v>4</v>
+      </c>
+      <c r="E24"/>
+      <c r="F24"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25">
+        <v>2010453</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+      <c r="E25"/>
+      <c r="F25"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26">
+        <v>902654</v>
+      </c>
+      <c r="C26">
+        <v>3</v>
+      </c>
+      <c r="E26"/>
+      <c r="F26"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27">
+        <v>85491</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
+      <c r="E27"/>
+      <c r="F27"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>23780</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="E28"/>
+      <c r="F28"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29">
+        <v>81864</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="E29"/>
+      <c r="F29"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30">
+        <v>6711</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="E30"/>
+      <c r="F30"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31">
+        <v>582720</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="E31"/>
+      <c r="F31"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>78</v>
+      </c>
+      <c r="B32">
+        <v>2467</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="E32"/>
+      <c r="F32"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>85</v>
+      </c>
+      <c r="B33">
+        <v>15</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="E33"/>
+      <c r="F33"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>26</v>
+      </c>
+      <c r="B34">
+        <v>52</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+      <c r="E34"/>
+      <c r="F34"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>28</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>29</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>30</v>
+      </c>
+      <c r="B38">
+        <v>930</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>31</v>
+      </c>
+      <c r="B39">
+        <v>8</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>32</v>
+      </c>
+      <c r="B40">
+        <v>1738</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>33</v>
+      </c>
+      <c r="B41">
+        <v>1978</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>34</v>
+      </c>
+      <c r="B42">
+        <v>174</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>35</v>
+      </c>
+      <c r="B43">
+        <v>604358</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>36</v>
+      </c>
+      <c r="B44">
+        <v>1055</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>41</v>
+      </c>
+      <c r="B45">
+        <v>1819</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>42</v>
+      </c>
+      <c r="B46">
+        <v>288643</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>43</v>
+      </c>
+      <c r="B47">
+        <v>565471</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>44</v>
+      </c>
+      <c r="B48">
+        <v>4165</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>45</v>
+      </c>
+      <c r="B49">
+        <v>45712</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>18</v>
+      </c>
+      <c r="B50">
+        <v>11</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>46</v>
+      </c>
+      <c r="B51">
+        <v>14080</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>47</v>
+      </c>
+      <c r="B52">
+        <v>442</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>48</v>
+      </c>
+      <c r="B53">
+        <v>107</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>49</v>
+      </c>
+      <c r="B54">
+        <v>5123</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>50</v>
+      </c>
+      <c r="B55">
+        <v>5123</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>51</v>
+      </c>
+      <c r="B56">
+        <v>7034</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>52</v>
+      </c>
+      <c r="B57">
+        <v>1569</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>53</v>
+      </c>
+      <c r="B58">
+        <v>64</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>54</v>
+      </c>
+      <c r="B59">
+        <v>30954</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>20</v>
+      </c>
+      <c r="B60">
+        <v>7538</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>55</v>
+      </c>
+      <c r="B61">
+        <v>7538</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>56</v>
+      </c>
+      <c r="B62">
+        <v>7538</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>57</v>
+      </c>
+      <c r="B63">
+        <v>1410</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>60</v>
+      </c>
+      <c r="B64">
+        <v>17413</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>61</v>
+      </c>
+      <c r="B65">
+        <v>2216</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>62</v>
+      </c>
+      <c r="B66">
+        <v>1024</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>63</v>
+      </c>
+      <c r="B67">
+        <v>124</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="E67"/>
+      <c r="F67"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>64</v>
+      </c>
+      <c r="B68">
+        <v>712</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="E68"/>
+      <c r="F68"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>65</v>
+      </c>
+      <c r="B69">
+        <v>96</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="E69"/>
+      <c r="F69"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>66</v>
+      </c>
+      <c r="B70">
+        <v>77</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="E70"/>
+      <c r="F70"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>68</v>
+      </c>
+      <c r="B71">
+        <v>35440</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="E71"/>
+      <c r="F71"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>69</v>
+      </c>
+      <c r="B72">
+        <v>1052</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="E72"/>
+      <c r="F72"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>70</v>
+      </c>
+      <c r="B73">
+        <v>1052</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="E73"/>
+      <c r="F73"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>71</v>
+      </c>
+      <c r="B74">
+        <v>135</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="E74"/>
+      <c r="F74"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>72</v>
+      </c>
+      <c r="B75">
+        <v>684</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="E75"/>
+      <c r="F75"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>73</v>
+      </c>
+      <c r="B76">
+        <v>53553</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="E76"/>
+      <c r="F76"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>74</v>
+      </c>
+      <c r="B77">
+        <v>17413</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="E77"/>
+      <c r="F77"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>75</v>
+      </c>
+      <c r="B78">
+        <v>13567</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="E78"/>
+      <c r="F78"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>76</v>
+      </c>
+      <c r="B79">
+        <v>451</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="E79"/>
+      <c r="F79"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>77</v>
+      </c>
+      <c r="B80">
+        <v>731499</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="E80"/>
+      <c r="F80"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>79</v>
+      </c>
+      <c r="B81">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="E81"/>
+      <c r="F81"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>80</v>
+      </c>
+      <c r="B82">
+        <v>1318</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+      <c r="E82"/>
+      <c r="F82"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>81</v>
+      </c>
+      <c r="B83">
+        <v>2583</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="E83"/>
+      <c r="F83"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>82</v>
+      </c>
+      <c r="B84">
+        <v>66</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+      <c r="E84"/>
+      <c r="F84"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>83</v>
+      </c>
+      <c r="B85">
+        <v>142064</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+      <c r="E85"/>
+      <c r="F85"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>84</v>
+      </c>
+      <c r="B86">
+        <v>683636</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+      <c r="E86"/>
+      <c r="F86"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>23</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="E87"/>
+      <c r="F87"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>57236</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+      <c r="E88"/>
+      <c r="F88"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>1</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+      <c r="E89"/>
+      <c r="F89"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>28376</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+      <c r="E90"/>
+      <c r="F90"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>3416</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+      <c r="E91"/>
+      <c r="F91"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>30173</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+      <c r="E92"/>
+      <c r="F92"/>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>1082</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+      <c r="E93"/>
+      <c r="F93"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>1220</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
+      </c>
+      <c r="E94"/>
+      <c r="F94"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>1</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+      <c r="E95"/>
+      <c r="F95"/>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>1</v>
+      </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
+      <c r="E96"/>
+      <c r="F96"/>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>1804</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+      <c r="E97"/>
+      <c r="F97"/>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E98"/>
+      <c r="F98"/>
+    </row>
+    <row r="114" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E114"/>
+      <c r="F114"/>
+    </row>
+    <row r="115" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E115"/>
+      <c r="F115"/>
+    </row>
+    <row r="116" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E116"/>
+      <c r="F116"/>
+    </row>
+    <row r="117" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E117"/>
+      <c r="F117"/>
+    </row>
+    <row r="118" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E118"/>
+      <c r="F118"/>
+    </row>
+    <row r="119" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E119"/>
+      <c r="F119"/>
+    </row>
+    <row r="120" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E120"/>
+      <c r="F120"/>
+    </row>
+    <row r="121" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E121"/>
+      <c r="F121"/>
+    </row>
+    <row r="122" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E122"/>
+      <c r="F122"/>
+    </row>
+    <row r="123" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E123"/>
+      <c r="F123"/>
+    </row>
+    <row r="124" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E124"/>
+      <c r="F124"/>
+    </row>
+    <row r="125" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E125"/>
+      <c r="F125"/>
+    </row>
+    <row r="126" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E126"/>
+      <c r="F126"/>
+    </row>
+    <row r="127" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E127"/>
+      <c r="F127"/>
+    </row>
+  </sheetData>
+  <sortState ref="A5:C97">
+    <sortCondition descending="1" ref="C5:C97"/>
+    <sortCondition ref="A5:A97"/>
+  </sortState>
+  <mergeCells count="3">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="A2:H2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H127"/>
   <sheetViews>
@@ -6695,12 +9107,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H127"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6719,7 +9131,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -8107,4 +10519,1619 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H127"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A92" sqref="A92"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="5" max="5" width="30.5703125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="34.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="38" customWidth="1"/>
+    <col min="9" max="9" width="23" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.28515625" customWidth="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+    </row>
+    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5">
+        <v>930</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3">
+        <f>COUNTIF(C:C,"&lt;= 1")</f>
+        <v>41</v>
+      </c>
+      <c r="G6">
+        <f t="shared" ref="G6:G16" si="0" xml:space="preserve"> 100 * F6 / 93</f>
+        <v>44.086021505376344</v>
+      </c>
+      <c r="H6">
+        <v>4.0200000000000001E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7">
+        <v>1738</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2</v>
+      </c>
+      <c r="F7" s="3">
+        <f>COUNTIF(C:C,"&lt;= 2")</f>
+        <v>48</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>51.612903225806448</v>
+      </c>
+      <c r="H7">
+        <v>4.0200000000000001E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8">
+        <v>1978</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3">
+        <v>3</v>
+      </c>
+      <c r="F8" s="3">
+        <f>COUNTIF(C:C,"&lt;= 3")</f>
+        <v>50</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>53.763440860215056</v>
+      </c>
+      <c r="H8">
+        <v>4.0200000000000001E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9">
+        <v>174</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3">
+        <v>5</v>
+      </c>
+      <c r="F9" s="3">
+        <f>COUNTIF(C:C,"&lt;=5")</f>
+        <v>53</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>56.98924731182796</v>
+      </c>
+      <c r="H9">
+        <v>4.0200000000000001E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10">
+        <v>1055</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3">
+        <v>8</v>
+      </c>
+      <c r="F10" s="3">
+        <f>COUNTIF(C:C,"&lt;= 8")</f>
+        <v>53</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>56.98924731182796</v>
+      </c>
+      <c r="H10">
+        <v>4.0200000000000001E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11">
+        <v>1819</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3">
+        <v>10</v>
+      </c>
+      <c r="F11" s="3">
+        <f>COUNTIF(C:C,"&lt;= 10")</f>
+        <v>57</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>61.29032258064516</v>
+      </c>
+      <c r="H11">
+        <v>4.0200000000000001E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12">
+        <v>288643</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3">
+        <v>20</v>
+      </c>
+      <c r="F12" s="3">
+        <f>COUNTIF(C:C,"&lt;= 20")</f>
+        <v>59</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>63.44086021505376</v>
+      </c>
+      <c r="H12">
+        <v>4.0200000000000001E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13">
+        <v>14080</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="E13" s="3">
+        <v>30</v>
+      </c>
+      <c r="F13" s="3">
+        <f>COUNTIF(C:C,"&lt;= 30")</f>
+        <v>59</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>63.44086021505376</v>
+      </c>
+      <c r="H13">
+        <v>4.0200000000000001E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14">
+        <v>442</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3">
+        <v>50</v>
+      </c>
+      <c r="F14" s="3">
+        <f>COUNTIF(C:C,"&lt;= 50")</f>
+        <v>62</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="H14">
+        <v>4.0200000000000001E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15">
+        <v>107</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="E15" s="3">
+        <v>100</v>
+      </c>
+      <c r="F15" s="3">
+        <f>COUNTIF(C:C,"&lt;= 100")</f>
+        <v>62</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="H15">
+        <v>4.0200000000000001E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16">
+        <v>5123</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="E16" s="3">
+        <v>500</v>
+      </c>
+      <c r="F16" s="3">
+        <f>COUNTIF(C:C,"&lt;= 500")</f>
+        <v>68</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>73.118279569892479</v>
+      </c>
+      <c r="H16">
+        <v>4.0200000000000001E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17">
+        <v>7034</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18">
+        <v>64</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19">
+        <v>7538</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="E19"/>
+      <c r="F19"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20">
+        <v>1410</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="E20"/>
+      <c r="F20"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21">
+        <v>81864</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="E21"/>
+      <c r="F21"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22">
+        <v>902654</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="E22"/>
+      <c r="F22"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23">
+        <v>17413</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="E23"/>
+      <c r="F23"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>63</v>
+      </c>
+      <c r="B24">
+        <v>124</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="E24"/>
+      <c r="F24"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>65</v>
+      </c>
+      <c r="B25">
+        <v>96</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="E25"/>
+      <c r="F25"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26">
+        <v>77</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="E26"/>
+      <c r="F26"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27">
+        <v>582720</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="E27"/>
+      <c r="F27"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>69</v>
+      </c>
+      <c r="B28">
+        <v>1052</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="E28"/>
+      <c r="F28"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>71</v>
+      </c>
+      <c r="B29">
+        <v>135</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="E29"/>
+      <c r="F29"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>72</v>
+      </c>
+      <c r="B30">
+        <v>684</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="E30"/>
+      <c r="F30"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>73</v>
+      </c>
+      <c r="B31">
+        <v>53553</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="E31"/>
+      <c r="F31"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>74</v>
+      </c>
+      <c r="B32">
+        <v>17413</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="E32"/>
+      <c r="F32"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>78</v>
+      </c>
+      <c r="B33">
+        <v>2467</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="E33"/>
+      <c r="F33"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>79</v>
+      </c>
+      <c r="B34">
+        <v>106</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="E34"/>
+      <c r="F34"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>81</v>
+      </c>
+      <c r="B35">
+        <v>2583</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>82</v>
+      </c>
+      <c r="B36">
+        <v>66</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>86</v>
+      </c>
+      <c r="B37">
+        <v>23</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>88</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>17</v>
+      </c>
+      <c r="B39">
+        <v>825</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>90</v>
+      </c>
+      <c r="B40">
+        <v>3416</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>91</v>
+      </c>
+      <c r="B41">
+        <v>30173</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>92</v>
+      </c>
+      <c r="B42">
+        <v>1082</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>95</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>96</v>
+      </c>
+      <c r="B44">
+        <v>1804</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>26</v>
+      </c>
+      <c r="B45">
+        <v>52</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>15</v>
+      </c>
+      <c r="B46">
+        <v>10658</v>
+      </c>
+      <c r="C46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>24</v>
+      </c>
+      <c r="B47">
+        <v>1534725</v>
+      </c>
+      <c r="C47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>64</v>
+      </c>
+      <c r="B48">
+        <v>712</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>21</v>
+      </c>
+      <c r="B49">
+        <v>6711</v>
+      </c>
+      <c r="C49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>22</v>
+      </c>
+      <c r="B50">
+        <v>564260</v>
+      </c>
+      <c r="C50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>23</v>
+      </c>
+      <c r="B51">
+        <v>85491</v>
+      </c>
+      <c r="C51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>25</v>
+      </c>
+      <c r="B52">
+        <v>13567</v>
+      </c>
+      <c r="C52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>19</v>
+      </c>
+      <c r="B53">
+        <v>2010453</v>
+      </c>
+      <c r="C53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>89</v>
+      </c>
+      <c r="B54">
+        <v>28376</v>
+      </c>
+      <c r="C54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>30954</v>
+      </c>
+      <c r="C55">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>68</v>
+      </c>
+      <c r="B56">
+        <v>35440</v>
+      </c>
+      <c r="C56">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>75</v>
+      </c>
+      <c r="B57">
+        <v>13567</v>
+      </c>
+      <c r="C57">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>13</v>
+      </c>
+      <c r="B58">
+        <v>223224</v>
+      </c>
+      <c r="C58">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>14</v>
+      </c>
+      <c r="B59">
+        <v>246693</v>
+      </c>
+      <c r="C59">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>16</v>
+      </c>
+      <c r="B60">
+        <v>441348</v>
+      </c>
+      <c r="C60">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>80</v>
+      </c>
+      <c r="B61">
+        <v>1318</v>
+      </c>
+      <c r="C61">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>12</v>
+      </c>
+      <c r="B62">
+        <v>957011</v>
+      </c>
+      <c r="C62">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>11</v>
+      </c>
+      <c r="B63">
+        <v>31421</v>
+      </c>
+      <c r="C63">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>9</v>
+      </c>
+      <c r="B64">
+        <v>60754</v>
+      </c>
+      <c r="C64">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>10</v>
+      </c>
+      <c r="B65">
+        <v>1080362</v>
+      </c>
+      <c r="C65">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>45</v>
+      </c>
+      <c r="B66">
+        <v>45712</v>
+      </c>
+      <c r="C66">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>7</v>
+      </c>
+      <c r="B67">
+        <v>115504</v>
+      </c>
+      <c r="C67">
+        <v>114</v>
+      </c>
+      <c r="E67"/>
+      <c r="F67"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>84</v>
+      </c>
+      <c r="B68">
+        <v>683636</v>
+      </c>
+      <c r="C68">
+        <v>126</v>
+      </c>
+      <c r="E68"/>
+      <c r="F68"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>35</v>
+      </c>
+      <c r="B69">
+        <v>604358</v>
+      </c>
+      <c r="C69">
+        <v>183</v>
+      </c>
+      <c r="E69"/>
+      <c r="F69"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>8</v>
+      </c>
+      <c r="B70">
+        <v>1263249</v>
+      </c>
+      <c r="C70">
+        <v>184</v>
+      </c>
+      <c r="E70"/>
+      <c r="F70"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>77</v>
+      </c>
+      <c r="B71">
+        <v>731499</v>
+      </c>
+      <c r="C71">
+        <v>232</v>
+      </c>
+      <c r="E71"/>
+      <c r="F71"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>87</v>
+      </c>
+      <c r="B72">
+        <v>57236</v>
+      </c>
+      <c r="C72">
+        <v>352</v>
+      </c>
+      <c r="E72"/>
+      <c r="F72"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>4</v>
+      </c>
+      <c r="B73">
+        <v>2271285</v>
+      </c>
+      <c r="C73">
+        <v>620</v>
+      </c>
+      <c r="E73"/>
+      <c r="F73"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>5</v>
+      </c>
+      <c r="B74">
+        <v>2271285</v>
+      </c>
+      <c r="C74">
+        <v>620</v>
+      </c>
+      <c r="E74"/>
+      <c r="F74"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>6</v>
+      </c>
+      <c r="B75">
+        <v>2271285</v>
+      </c>
+      <c r="C75">
+        <v>620</v>
+      </c>
+      <c r="E75"/>
+      <c r="F75"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>27</v>
+      </c>
+      <c r="B76">
+        <v>2147483647</v>
+      </c>
+      <c r="C76">
+        <v>2147483647</v>
+      </c>
+      <c r="E76"/>
+      <c r="F76"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B77">
+        <v>2147483647</v>
+      </c>
+      <c r="C77">
+        <v>2147483647</v>
+      </c>
+      <c r="E77"/>
+      <c r="F77"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>28</v>
+      </c>
+      <c r="B78">
+        <v>2147483647</v>
+      </c>
+      <c r="C78">
+        <v>2147483647</v>
+      </c>
+      <c r="E78"/>
+      <c r="F78"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>29</v>
+      </c>
+      <c r="B79">
+        <v>2147483647</v>
+      </c>
+      <c r="C79">
+        <v>2147483647</v>
+      </c>
+      <c r="E79"/>
+      <c r="F79"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>1</v>
+      </c>
+      <c r="B80">
+        <v>2147483647</v>
+      </c>
+      <c r="C80">
+        <v>2147483647</v>
+      </c>
+      <c r="E80"/>
+      <c r="F80"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>43</v>
+      </c>
+      <c r="B81">
+        <v>2147483647</v>
+      </c>
+      <c r="C81">
+        <v>2147483647</v>
+      </c>
+      <c r="E81"/>
+      <c r="F81"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>44</v>
+      </c>
+      <c r="B82">
+        <v>2147483647</v>
+      </c>
+      <c r="C82">
+        <v>2147483647</v>
+      </c>
+      <c r="E82"/>
+      <c r="F82"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>18</v>
+      </c>
+      <c r="B83">
+        <v>2147483647</v>
+      </c>
+      <c r="C83">
+        <v>2147483647</v>
+      </c>
+      <c r="E83"/>
+      <c r="F83"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>49</v>
+      </c>
+      <c r="B84">
+        <v>2147483647</v>
+      </c>
+      <c r="C84">
+        <v>2147483647</v>
+      </c>
+      <c r="E84"/>
+      <c r="F84"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>52</v>
+      </c>
+      <c r="B85">
+        <v>2147483647</v>
+      </c>
+      <c r="C85">
+        <v>2147483647</v>
+      </c>
+      <c r="E85"/>
+      <c r="F85"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>20</v>
+      </c>
+      <c r="B86">
+        <v>2147483647</v>
+      </c>
+      <c r="C86">
+        <v>2147483647</v>
+      </c>
+      <c r="E86"/>
+      <c r="F86"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>56</v>
+      </c>
+      <c r="B87">
+        <v>2147483647</v>
+      </c>
+      <c r="C87">
+        <v>2147483647</v>
+      </c>
+      <c r="E87"/>
+      <c r="F87"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>61</v>
+      </c>
+      <c r="B88">
+        <v>2147483647</v>
+      </c>
+      <c r="C88">
+        <v>2147483647</v>
+      </c>
+      <c r="E88"/>
+      <c r="F88"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>62</v>
+      </c>
+      <c r="B89">
+        <v>2147483647</v>
+      </c>
+      <c r="C89">
+        <v>2147483647</v>
+      </c>
+      <c r="E89"/>
+      <c r="F89"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>70</v>
+      </c>
+      <c r="B90">
+        <v>2147483647</v>
+      </c>
+      <c r="C90">
+        <v>2147483647</v>
+      </c>
+      <c r="E90"/>
+      <c r="F90"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>76</v>
+      </c>
+      <c r="B91">
+        <v>2147483647</v>
+      </c>
+      <c r="C91">
+        <v>2147483647</v>
+      </c>
+      <c r="E91"/>
+      <c r="F91"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>83</v>
+      </c>
+      <c r="B92">
+        <v>2147483647</v>
+      </c>
+      <c r="C92">
+        <v>2147483647</v>
+      </c>
+      <c r="E92"/>
+      <c r="F92"/>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>85</v>
+      </c>
+      <c r="B93">
+        <v>2147483647</v>
+      </c>
+      <c r="C93">
+        <v>2147483647</v>
+      </c>
+      <c r="E93"/>
+      <c r="F93"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>2</v>
+      </c>
+      <c r="B94">
+        <v>2147483647</v>
+      </c>
+      <c r="C94">
+        <v>2147483647</v>
+      </c>
+      <c r="E94"/>
+      <c r="F94"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>93</v>
+      </c>
+      <c r="B95">
+        <v>2147483647</v>
+      </c>
+      <c r="C95">
+        <v>2147483647</v>
+      </c>
+      <c r="E95"/>
+      <c r="F95"/>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>94</v>
+      </c>
+      <c r="B96">
+        <v>2147483647</v>
+      </c>
+      <c r="C96">
+        <v>2147483647</v>
+      </c>
+      <c r="E96"/>
+      <c r="F96"/>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>3</v>
+      </c>
+      <c r="B97">
+        <v>2147483647</v>
+      </c>
+      <c r="C97">
+        <v>2147483647</v>
+      </c>
+      <c r="E97"/>
+      <c r="F97"/>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E98"/>
+      <c r="F98"/>
+    </row>
+    <row r="114" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E114"/>
+      <c r="F114"/>
+    </row>
+    <row r="115" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E115"/>
+      <c r="F115"/>
+    </row>
+    <row r="116" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E116"/>
+      <c r="F116"/>
+    </row>
+    <row r="117" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E117"/>
+      <c r="F117"/>
+    </row>
+    <row r="118" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E118"/>
+      <c r="F118"/>
+    </row>
+    <row r="119" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E119"/>
+      <c r="F119"/>
+    </row>
+    <row r="120" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E120"/>
+      <c r="F120"/>
+    </row>
+    <row r="121" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E121"/>
+      <c r="F121"/>
+    </row>
+    <row r="122" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E122"/>
+      <c r="F122"/>
+    </row>
+    <row r="123" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E123"/>
+      <c r="F123"/>
+    </row>
+    <row r="124" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E124"/>
+      <c r="F124"/>
+    </row>
+    <row r="125" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E125"/>
+      <c r="F125"/>
+    </row>
+    <row r="126" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E126"/>
+      <c r="F126"/>
+    </row>
+    <row r="127" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E127"/>
+      <c r="F127"/>
+    </row>
+  </sheetData>
+  <sortState ref="A5:C97">
+    <sortCondition ref="C5:C97"/>
+    <sortCondition ref="A5:A97"/>
+  </sortState>
+  <mergeCells count="3">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" s="6"/>
+      <c r="C1" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D6" t="s">
+        <v>110</v>
+      </c>
+      <c r="E6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C8" t="s">
+        <v>118</v>
+      </c>
+      <c r="D8" t="s">
+        <v>119</v>
+      </c>
+      <c r="E8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>122</v>
+      </c>
+      <c r="C10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>95</v>
+      </c>
+      <c r="E10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>124</v>
+      </c>
+      <c r="C11" t="s">
+        <v>125</v>
+      </c>
+      <c r="D11" t="s">
+        <v>126</v>
+      </c>
+      <c r="E11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/analysis2.xlsx
+++ b/analysis2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="6060" yWindow="480" windowWidth="27795" windowHeight="13350" activeTab="5"/>
+    <workbookView xWindow="6060" yWindow="480" windowWidth="27795" windowHeight="13350" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="5.4" sheetId="1" r:id="rId1"/>
@@ -484,18 +484,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -644,8 +644,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="138431488"/>
-        <c:axId val="66942592"/>
+        <c:axId val="39903232"/>
+        <c:axId val="67734912"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -763,11 +763,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="141224448"/>
-        <c:axId val="66943168"/>
+        <c:axId val="39904256"/>
+        <c:axId val="67735488"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="138431488"/>
+        <c:axId val="39903232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -799,7 +799,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66942592"/>
+        <c:crossAx val="67734912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -807,7 +807,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="66942592"/>
+        <c:axId val="67734912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -837,12 +837,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="138431488"/>
+        <c:crossAx val="39903232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="66943168"/>
+        <c:axId val="67735488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -874,12 +874,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="141224448"/>
+        <c:crossAx val="39904256"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="141224448"/>
+        <c:axId val="39904256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -889,7 +889,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66943168"/>
+        <c:crossAx val="67735488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1046,8 +1046,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="138428928"/>
-        <c:axId val="141271616"/>
+        <c:axId val="39905280"/>
+        <c:axId val="67737792"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1165,11 +1165,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="141424128"/>
-        <c:axId val="141272192"/>
+        <c:axId val="39906816"/>
+        <c:axId val="67738368"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="138428928"/>
+        <c:axId val="39905280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1202,7 +1202,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="141271616"/>
+        <c:crossAx val="67737792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1210,7 +1210,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="141271616"/>
+        <c:axId val="67737792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -1241,12 +1241,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="138428928"/>
+        <c:crossAx val="39905280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="141272192"/>
+        <c:axId val="67738368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1279,12 +1279,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="141424128"/>
+        <c:crossAx val="39906816"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="141424128"/>
+        <c:axId val="39906816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1294,7 +1294,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="141272192"/>
+        <c:crossAx val="67738368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1333,7 +1333,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -1452,130 +1452,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="141222400"/>
-        <c:axId val="209438976"/>
-      </c:lineChart>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'5.5'!$H$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Time per Entity (s)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'5.5'!$E$6:$E$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>500</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'5.5'!$H$6:$H$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>4.0200000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.0200000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.0200000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.0200000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.0200000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.0200000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.0200000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.0200000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.0200000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.0200000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4.0200000000000001E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="53821440"/>
-        <c:axId val="209439552"/>
+        <c:axId val="39904768"/>
+        <c:axId val="67642496"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="141222400"/>
+        <c:axId val="39904768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1596,7 +1477,7 @@
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> of Matches</a:t>
+                  <a:t> of Matches Returned</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1608,7 +1489,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="209438976"/>
+        <c:crossAx val="67642496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1616,10 +1497,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="209438976"/>
+        <c:axId val="67642496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
+          <c:min val="60"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1647,66 +1529,10 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="141222400"/>
+        <c:crossAx val="39904768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:valAx>
-        <c:axId val="209439552"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="r"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Time</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> Per Entry (s)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="53821440"/>
-        <c:crosses val="max"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:catAx>
-        <c:axId val="53821440"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="209439552"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
@@ -1858,8 +1684,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="141225472"/>
-        <c:axId val="141274496"/>
+        <c:axId val="44163584"/>
+        <c:axId val="67644800"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1977,11 +1803,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="143999488"/>
-        <c:axId val="141275072"/>
+        <c:axId val="44221952"/>
+        <c:axId val="67645376"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="141225472"/>
+        <c:axId val="44163584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2013,7 +1839,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="141274496"/>
+        <c:crossAx val="67644800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2021,7 +1847,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="141274496"/>
+        <c:axId val="67644800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -2051,12 +1877,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="141225472"/>
+        <c:crossAx val="44163584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="141275072"/>
+        <c:axId val="67645376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2088,12 +1914,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="143999488"/>
+        <c:crossAx val="44221952"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="143999488"/>
+        <c:axId val="44221952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2103,7 +1929,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="141275072"/>
+        <c:crossAx val="67645376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2260,8 +2086,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="141425152"/>
-        <c:axId val="141277376"/>
+        <c:axId val="44224000"/>
+        <c:axId val="67647680"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2379,11 +2205,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="144002560"/>
-        <c:axId val="141277952"/>
+        <c:axId val="47882752"/>
+        <c:axId val="67648256"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="141425152"/>
+        <c:axId val="44224000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2409,14 +2235,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="141277376"/>
+        <c:crossAx val="67647680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2424,7 +2249,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="141277376"/>
+        <c:axId val="67647680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -2448,19 +2273,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="141425152"/>
+        <c:crossAx val="44224000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="141277952"/>
+        <c:axId val="67648256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2486,19 +2310,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144002560"/>
+        <c:crossAx val="47882752"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="144002560"/>
+        <c:axId val="47882752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2508,7 +2331,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="141277952"/>
+        <c:crossAx val="67648256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2518,7 +2341,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2666,8 +2488,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="95392256"/>
-        <c:axId val="42121408"/>
+        <c:axId val="47884288"/>
+        <c:axId val="48080000"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2785,11 +2607,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="141435904"/>
-        <c:axId val="42121984"/>
+        <c:axId val="40504320"/>
+        <c:axId val="48080576"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="95392256"/>
+        <c:axId val="47884288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2822,7 +2644,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="42121408"/>
+        <c:crossAx val="48080000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2830,7 +2652,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="42121408"/>
+        <c:axId val="48080000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -2861,12 +2683,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95392256"/>
+        <c:crossAx val="47884288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="42121984"/>
+        <c:axId val="48080576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2899,12 +2721,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="141435904"/>
+        <c:crossAx val="40504320"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="141435904"/>
+        <c:axId val="40504320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2914,7 +2736,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="42121984"/>
+        <c:crossAx val="48080576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3469,29 +3291,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
     </row>
     <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -4865,7 +4687,7 @@
   <dimension ref="A1:H127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="A5:C97"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4883,29 +4705,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
     </row>
     <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -6279,8 +6101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H127"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6298,32 +6120,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
     </row>
     <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
     </row>
     <row r="3" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -7716,29 +7538,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
     </row>
     <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -9130,29 +8952,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
     </row>
     <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -10525,7 +10347,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A92" sqref="A92"/>
     </sheetView>
   </sheetViews>
@@ -10544,29 +10366,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
     </row>
     <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -11953,24 +11775,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B1" s="6"/>
-      <c r="C1" s="7" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="4" t="s">
         <v>112</v>
       </c>
     </row>
